--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +426,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +587,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1526,29 +1536,65 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10.01</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10.52</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.73</v>
+      </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="33">
+        <v>9.4084000000000003</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="J12" s="2">
+        <v>19.8355</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20.258800000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>21.6645</v>
+      </c>
+      <c r="M12" s="2">
+        <v>21.745000000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>20.690799999999999</v>
+      </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>19.603200000000001</v>
+      </c>
       <c r="Q12" s="31"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="5">
+        <v>29.255299999999998</v>
+      </c>
+      <c r="S12" s="5">
+        <v>28.493500000000001</v>
+      </c>
+      <c r="T12" s="5">
+        <v>29.178799999999999</v>
+      </c>
+      <c r="U12" s="5">
+        <v>28.465299999999999</v>
+      </c>
+      <c r="V12" s="5">
+        <v>28.242100000000001</v>
+      </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="13"/>
+      <c r="X12" s="13">
+        <v>27.424700000000001</v>
+      </c>
       <c r="Y12" s="32"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1673,29 +1719,65 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11.12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11.1</v>
+      </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="40">
+        <v>9.01</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="J15" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>19.950600000000001</v>
+      </c>
+      <c r="L15" s="41">
+        <v>25.683399999999999</v>
+      </c>
+      <c r="M15" s="2">
+        <v>19.946300000000001</v>
+      </c>
+      <c r="N15" s="2">
+        <v>21.274100000000001</v>
+      </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6">
+        <v>17.4557</v>
+      </c>
       <c r="Q15" s="31"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="R15" s="5">
+        <v>25.044699999999999</v>
+      </c>
+      <c r="S15" s="5">
+        <v>29.8413</v>
+      </c>
+      <c r="T15" s="5">
+        <v>29.8186</v>
+      </c>
+      <c r="U15" s="5">
+        <v>25.9817</v>
+      </c>
+      <c r="V15" s="5">
+        <v>31.920200000000001</v>
+      </c>
       <c r="W15" s="1"/>
-      <c r="X15" s="6"/>
+      <c r="X15" s="6">
+        <v>25.1357</v>
+      </c>
       <c r="Y15" s="32"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3269,29 +3351,65 @@
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="3">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9.15</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10.87</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9.17</v>
+      </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="33"/>
+      <c r="H48" s="33">
+        <v>9.0594000000000001</v>
+      </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="J48" s="2">
+        <v>15.247400000000001</v>
+      </c>
+      <c r="K48" s="2">
+        <v>15.0076</v>
+      </c>
+      <c r="L48" s="2">
+        <v>18.682600000000001</v>
+      </c>
+      <c r="M48" s="2">
+        <v>18.0425</v>
+      </c>
+      <c r="N48" s="2">
+        <v>14.5433</v>
+      </c>
       <c r="O48" s="9"/>
-      <c r="P48" s="6"/>
+      <c r="P48" s="6">
+        <v>14.6266</v>
+      </c>
       <c r="Q48" s="31"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
+      <c r="R48" s="5">
+        <v>26.796099999999999</v>
+      </c>
+      <c r="S48" s="5">
+        <v>26.471499999999999</v>
+      </c>
+      <c r="T48" s="5">
+        <v>25.453600000000002</v>
+      </c>
+      <c r="U48" s="5">
+        <v>28.4057</v>
+      </c>
+      <c r="V48" s="5">
+        <v>25.047999999999998</v>
+      </c>
       <c r="W48" s="1"/>
-      <c r="X48" s="6"/>
+      <c r="X48" s="6">
+        <v>24.535799999999998</v>
+      </c>
       <c r="Y48" s="32"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -3465,29 +3583,65 @@
       <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9.33</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10.58</v>
+      </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="33">
+        <v>8.4696999999999996</v>
+      </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="J52" s="2">
+        <v>16.773099999999999</v>
+      </c>
+      <c r="K52" s="2">
+        <v>16.7822</v>
+      </c>
+      <c r="L52" s="2">
+        <v>16.8002</v>
+      </c>
+      <c r="M52" s="2">
+        <v>16.399100000000001</v>
+      </c>
+      <c r="N52" s="2">
+        <v>17.195699999999999</v>
+      </c>
       <c r="O52" s="9"/>
-      <c r="P52" s="6"/>
+      <c r="P52" s="6">
+        <v>16.079000000000001</v>
+      </c>
       <c r="Q52" s="31"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
+      <c r="R52" s="5">
+        <v>27.0031</v>
+      </c>
+      <c r="S52" s="5">
+        <v>28.2804</v>
+      </c>
+      <c r="T52" s="5">
+        <v>28.0154</v>
+      </c>
+      <c r="U52" s="5">
+        <v>28.024000000000001</v>
+      </c>
+      <c r="V52" s="5">
+        <v>26.968399999999999</v>
+      </c>
       <c r="W52" s="1"/>
-      <c r="X52" s="6"/>
+      <c r="X52" s="6">
+        <v>26.030200000000001</v>
+      </c>
       <c r="Y52" s="32"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
@@ -3514,29 +3668,65 @@
       <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="B53" s="3">
+        <v>13.96</v>
+      </c>
+      <c r="C53" s="3">
+        <v>12.92</v>
+      </c>
+      <c r="D53" s="3">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3">
+        <v>12.83</v>
+      </c>
+      <c r="F53" s="3">
+        <v>12.29</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="33">
+        <v>12.1465</v>
+      </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="J53" s="2">
+        <v>24.862400000000001</v>
+      </c>
+      <c r="K53" s="2">
+        <v>26.801600000000001</v>
+      </c>
+      <c r="L53" s="2">
+        <v>26.616499999999998</v>
+      </c>
+      <c r="M53" s="2">
+        <v>28.3827</v>
+      </c>
+      <c r="N53" s="2">
+        <v>24.5687</v>
+      </c>
       <c r="O53" s="9"/>
-      <c r="P53" s="6"/>
+      <c r="P53" s="6">
+        <v>24.220300000000002</v>
+      </c>
       <c r="Q53" s="31"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
+      <c r="R53" s="5">
+        <v>36.9876</v>
+      </c>
+      <c r="S53" s="5">
+        <v>37.814700000000002</v>
+      </c>
+      <c r="T53" s="5">
+        <v>37.529600000000002</v>
+      </c>
+      <c r="U53" s="5">
+        <v>37.422499999999999</v>
+      </c>
+      <c r="V53" s="5">
+        <v>38.94</v>
+      </c>
       <c r="W53" s="1"/>
-      <c r="X53" s="6"/>
+      <c r="X53" s="6">
+        <v>36.112200000000001</v>
+      </c>
       <c r="Y53" s="32"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -3730,23 +3920,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>14.14</v>
+        <v>11.651250000000001</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>14.343333333333334</v>
+        <v>11.98625</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>15.043333333333335</v>
+        <v>12.252500000000001</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>15.203333333333333</v>
+        <v>12.69375</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>13.933333333333332</v>
+        <v>11.833749999999998</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -3754,7 +3944,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>13.372</v>
+        <v>11.026250000000001</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -3762,23 +3952,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>22.487566666666666</v>
+        <v>20.160137500000001</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>25.006199999999996</v>
+        <v>21.727425</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>23.158100000000001</v>
+        <v>22.365187499999998</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>22.158000000000001</v>
+        <v>21.373699999999999</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>23.078433333333333</v>
+        <v>20.938487500000001</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -3786,7 +3976,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>21.610299999999999</v>
+        <v>19.601962500000003</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3794,23 +3984,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>35.709499999999998</v>
+        <v>31.526912500000002</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>39.748933333333333</v>
+        <v>33.768524999999997</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>38.810366666666667</v>
+        <v>33.303387499999999</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>42.5764</v>
+        <v>34.503549999999997</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>40.273933333333332</v>
+        <v>33.992562499999998</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3818,7 +4008,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>34.020933333333339</v>
+        <v>30.162675</v>
       </c>
       <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ML_Time-Series_EDA\Data_Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -584,7 +589,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -677,7 +682,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -854,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1445,7 +1450,7 @@
         <v>15.13</v>
       </c>
       <c r="C11" s="3">
-        <v>15.62</v>
+        <v>15.82</v>
       </c>
       <c r="D11" s="34">
         <v>18.600000000000001</v>
@@ -1526,29 +1531,65 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3">
+        <v>9.76</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.91</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.9700000000000006</v>
+      </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="33">
+        <v>9.5248000000000008</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="J12" s="2">
+        <v>20.033300000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>19.291399999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>19.145099999999999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>18.828499999999998</v>
+      </c>
+      <c r="N12" s="2">
+        <v>19.273800000000001</v>
+      </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>18.099900000000002</v>
+      </c>
       <c r="Q12" s="31"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="5">
+        <v>28.471</v>
+      </c>
+      <c r="S12" s="5">
+        <v>29.0306</v>
+      </c>
+      <c r="T12" s="5">
+        <v>28.283899999999999</v>
+      </c>
+      <c r="U12" s="5">
+        <v>28.049800000000001</v>
+      </c>
+      <c r="V12" s="5">
+        <v>30.0107</v>
+      </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="13"/>
+      <c r="X12" s="13">
+        <v>27.107099999999999</v>
+      </c>
       <c r="Y12" s="32"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -3730,23 +3771,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>14.14</v>
+        <v>13.045</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>14.343333333333334</v>
+        <v>13.285</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>15.043333333333335</v>
+        <v>13.77</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>15.203333333333333</v>
+        <v>13.81</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>13.933333333333332</v>
+        <v>12.942500000000001</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -3754,7 +3795,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>13.372</v>
+        <v>12.4102</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -3762,23 +3803,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>22.487566666666666</v>
+        <v>21.874000000000002</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>25.006199999999996</v>
+        <v>23.577500000000001</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>23.158100000000001</v>
+        <v>22.15485</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>22.158000000000001</v>
+        <v>21.325624999999999</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>23.078433333333333</v>
+        <v>22.127275000000001</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -3786,7 +3827,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>21.610299999999999</v>
+        <v>20.732700000000001</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3794,23 +3835,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>35.709499999999998</v>
+        <v>33.899875000000002</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>39.748933333333333</v>
+        <v>37.06935</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>38.810366666666667</v>
+        <v>36.178750000000001</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>42.5764</v>
+        <v>38.944749999999999</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>40.273933333333332</v>
+        <v>37.708125000000003</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3818,7 +3859,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>34.020933333333339</v>
+        <v>32.292475000000003</v>
       </c>
       <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -864,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1804,29 +1804,65 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3">
+        <v>8.41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.43</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.59</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="38">
+        <v>8.3646999999999991</v>
+      </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="J16" s="2">
+        <v>13.974600000000001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>13.6487</v>
+      </c>
+      <c r="L16" s="2">
+        <v>14.2293</v>
+      </c>
+      <c r="M16" s="2">
+        <v>14.0404</v>
+      </c>
+      <c r="N16" s="2">
+        <v>14.316700000000001</v>
+      </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="6">
+        <v>13.4811</v>
+      </c>
       <c r="Q16" s="31"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="R16" s="5">
+        <v>23.8886</v>
+      </c>
+      <c r="S16" s="5">
+        <v>23.5366</v>
+      </c>
+      <c r="T16" s="5">
+        <v>24.473099999999999</v>
+      </c>
+      <c r="U16" s="5">
+        <v>22.252400000000002</v>
+      </c>
+      <c r="V16" s="5">
+        <v>23.758099999999999</v>
+      </c>
       <c r="W16" s="1"/>
-      <c r="X16" s="6"/>
+      <c r="X16" s="6">
+        <v>22.785599999999999</v>
+      </c>
       <c r="Y16" s="32"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -3253,29 +3289,65 @@
       <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C46" s="3">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9.15</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8.59</v>
+      </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33">
+        <v>8.3840000000000003</v>
+      </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="J46" s="2">
+        <v>16.016999999999999</v>
+      </c>
+      <c r="K46" s="2">
+        <v>15.7864</v>
+      </c>
+      <c r="L46" s="2">
+        <v>16.222000000000001</v>
+      </c>
+      <c r="M46" s="2">
+        <v>15.4436</v>
+      </c>
+      <c r="N46" s="2">
+        <v>16.215299999999999</v>
+      </c>
       <c r="O46" s="9"/>
-      <c r="P46" s="6"/>
+      <c r="P46" s="6">
+        <v>15.174799999999999</v>
+      </c>
       <c r="Q46" s="31"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
+      <c r="R46" s="5">
+        <v>25.9923</v>
+      </c>
+      <c r="S46" s="5">
+        <v>28.1934</v>
+      </c>
+      <c r="T46" s="5">
+        <v>28.686800000000002</v>
+      </c>
+      <c r="U46" s="5">
+        <v>27.127800000000001</v>
+      </c>
+      <c r="V46" s="5">
+        <v>27.170200000000001</v>
+      </c>
       <c r="W46" s="1"/>
-      <c r="X46" s="6"/>
+      <c r="X46" s="6">
+        <v>25.741599999999998</v>
+      </c>
       <c r="Y46" s="32"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -3920,23 +3992,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.651250000000001</v>
+        <v>11.059000000000001</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.98625</v>
+        <v>11.332000000000001</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>12.252500000000001</v>
+        <v>11.506000000000002</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.69375</v>
+        <v>11.959999999999999</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.833749999999998</v>
+        <v>11.179999999999998</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -3944,7 +4016,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>11.026250000000001</v>
+        <v>10.49587</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -3952,23 +4024,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>20.160137500000001</v>
+        <v>19.127269999999999</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>21.727425</v>
+        <v>20.32545</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>22.365187499999998</v>
+        <v>20.937279999999998</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>21.373699999999999</v>
+        <v>20.047360000000001</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.938487500000001</v>
+        <v>19.803989999999999</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -3976,7 +4048,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>19.601962500000003</v>
+        <v>18.547160000000002</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3984,23 +4056,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.526912500000002</v>
+        <v>30.209620000000001</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>33.768524999999997</v>
+        <v>32.187820000000002</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>33.303387499999999</v>
+        <v>31.9587</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>34.503549999999997</v>
+        <v>32.540859999999995</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>33.992562499999998</v>
+        <v>32.286880000000004</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4008,7 +4080,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>30.162675</v>
+        <v>28.982859999999999</v>
       </c>
       <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -864,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1889,29 +1889,65 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="3">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19.11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18.16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17.969899999999999</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="33">
+        <v>17.125900000000001</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="J17" s="2">
+        <v>29.023299999999999</v>
+      </c>
+      <c r="K17" s="2">
+        <v>32.798400000000001</v>
+      </c>
+      <c r="L17" s="2">
+        <v>30.480799999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30.942499999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>31.052800000000001</v>
+      </c>
       <c r="O17" s="9"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6">
+        <v>28.316199999999998</v>
+      </c>
       <c r="Q17" s="31"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="R17" s="5">
+        <v>45.5655</v>
+      </c>
+      <c r="S17" s="5">
+        <v>45.560400000000001</v>
+      </c>
+      <c r="T17" s="5">
+        <v>47.475499999999997</v>
+      </c>
+      <c r="U17" s="5">
+        <v>47.491900000000001</v>
+      </c>
+      <c r="V17" s="5">
+        <v>47.476100000000002</v>
+      </c>
       <c r="W17" s="1"/>
-      <c r="X17" s="6"/>
+      <c r="X17" s="6">
+        <v>45.015500000000003</v>
+      </c>
       <c r="Y17" s="32"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -2862,28 +2898,64 @@
       <c r="A37" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="3">
+        <v>8.02</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7.98</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8.51</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8.14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>8.07</v>
+      </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="33"/>
+      <c r="H37" s="33">
+        <v>7.8539000000000003</v>
+      </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="J37" s="2">
+        <v>13.8657</v>
+      </c>
+      <c r="K37" s="2">
+        <v>13.7096</v>
+      </c>
+      <c r="L37" s="2">
+        <v>13.615500000000001</v>
+      </c>
+      <c r="M37" s="2">
+        <v>13.862500000000001</v>
+      </c>
+      <c r="N37" s="2">
+        <v>13.7752</v>
+      </c>
       <c r="O37" s="9"/>
-      <c r="P37" s="6"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="P37" s="6">
+        <v>13.3405</v>
+      </c>
+      <c r="R37" s="5">
+        <v>20.654699999999998</v>
+      </c>
+      <c r="S37" s="5">
+        <v>21.027100000000001</v>
+      </c>
+      <c r="T37" s="5">
+        <v>21.242000000000001</v>
+      </c>
+      <c r="U37" s="5">
+        <v>21.025099999999998</v>
+      </c>
+      <c r="V37" s="5">
+        <v>20.483699999999999</v>
+      </c>
       <c r="W37" s="1"/>
-      <c r="X37" s="6"/>
+      <c r="X37" s="6">
+        <v>20.144500000000001</v>
+      </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -2909,29 +2981,65 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3">
+        <v>10.36</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11.15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>11.88</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F38" s="3">
+        <v>11.24</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="33">
+        <v>9.6365999999999996</v>
+      </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="J38" s="2">
+        <v>15.5364</v>
+      </c>
+      <c r="K38" s="2">
+        <v>15.2796</v>
+      </c>
+      <c r="L38" s="2">
+        <v>16.401700000000002</v>
+      </c>
+      <c r="M38" s="2">
+        <v>14.914</v>
+      </c>
+      <c r="N38" s="2">
+        <v>15.230499999999999</v>
+      </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <v>14.6053</v>
+      </c>
       <c r="Q38" s="31"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="R38" s="5">
+        <v>24.766999999999999</v>
+      </c>
+      <c r="S38" s="5">
+        <v>25.831600000000002</v>
+      </c>
+      <c r="T38" s="5">
+        <v>24.762799999999999</v>
+      </c>
+      <c r="U38" s="5">
+        <v>27.285699999999999</v>
+      </c>
+      <c r="V38" s="5">
+        <v>26.687999999999999</v>
+      </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="6"/>
+      <c r="X38" s="6">
+        <v>23.862300000000001</v>
+      </c>
       <c r="Y38" s="32"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -2958,28 +3066,64 @@
       <c r="A39" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12.83</v>
+      </c>
+      <c r="D39" s="3">
+        <v>12.27</v>
+      </c>
+      <c r="E39" s="3">
+        <v>13.48</v>
+      </c>
+      <c r="F39" s="3">
+        <v>14.05</v>
+      </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="33"/>
+      <c r="H39" s="33">
+        <v>12.21</v>
+      </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="J39" s="2">
+        <v>22.882000000000001</v>
+      </c>
+      <c r="K39" s="2">
+        <v>25.270800000000001</v>
+      </c>
+      <c r="L39" s="2">
+        <v>22.9924</v>
+      </c>
+      <c r="M39" s="2">
+        <v>22.759799999999998</v>
+      </c>
+      <c r="N39" s="2">
+        <v>22.9849</v>
+      </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="6"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
+      <c r="P39" s="6">
+        <v>21.985399999999998</v>
+      </c>
+      <c r="R39" s="5">
+        <v>43.270600000000002</v>
+      </c>
+      <c r="S39" s="5">
+        <v>39.927399999999999</v>
+      </c>
+      <c r="T39" s="5">
+        <v>42.9773</v>
+      </c>
+      <c r="U39" s="5">
+        <v>40.818100000000001</v>
+      </c>
+      <c r="V39" s="5">
+        <v>46.058300000000003</v>
+      </c>
       <c r="W39" s="1"/>
-      <c r="X39" s="6"/>
+      <c r="X39" s="6">
+        <v>39.599400000000003</v>
+      </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -3005,29 +3149,65 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="3">
+        <v>9.49</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10.72</v>
+      </c>
+      <c r="D40" s="3">
+        <v>11.12</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10.39</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10.92</v>
+      </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="33">
+        <v>9.3773</v>
+      </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="J40" s="2">
+        <v>16.559799999999999</v>
+      </c>
+      <c r="K40" s="2">
+        <v>19.3338</v>
+      </c>
+      <c r="L40" s="2">
+        <v>18.196899999999999</v>
+      </c>
+      <c r="M40" s="2">
+        <v>16.717700000000001</v>
+      </c>
+      <c r="N40" s="2">
+        <v>18.7011</v>
+      </c>
       <c r="O40" s="9"/>
-      <c r="P40" s="6"/>
+      <c r="P40" s="6">
+        <v>16.084099999999999</v>
+      </c>
       <c r="Q40" s="31"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="R40" s="5">
+        <v>25.631499999999999</v>
+      </c>
+      <c r="S40" s="5">
+        <v>35.986400000000003</v>
+      </c>
+      <c r="T40" s="5">
+        <v>35.799700000000001</v>
+      </c>
+      <c r="U40" s="5">
+        <v>33.050600000000003</v>
+      </c>
+      <c r="V40" s="5">
+        <v>35.479199999999999</v>
+      </c>
       <c r="W40" s="1"/>
-      <c r="X40" s="6"/>
+      <c r="X40" s="6">
+        <v>27.392600000000002</v>
+      </c>
       <c r="Y40" s="32"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -3103,28 +3283,64 @@
       <c r="A42" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="C42" s="3">
+        <v>11.26</v>
+      </c>
+      <c r="D42" s="3">
+        <v>11.83</v>
+      </c>
+      <c r="E42" s="3">
+        <v>11.56</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11.22</v>
+      </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="33"/>
+      <c r="H42" s="33">
+        <v>10.099</v>
+      </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="J42" s="2">
+        <v>20.644500000000001</v>
+      </c>
+      <c r="K42" s="2">
+        <v>22.084099999999999</v>
+      </c>
+      <c r="L42" s="2">
+        <v>19.252800000000001</v>
+      </c>
+      <c r="M42" s="2">
+        <v>20.474599999999999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>23.0215</v>
+      </c>
       <c r="O42" s="9"/>
-      <c r="P42" s="6"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="P42" s="6">
+        <v>18.628599999999999</v>
+      </c>
+      <c r="R42" s="5">
+        <v>31.3141</v>
+      </c>
+      <c r="S42" s="5">
+        <v>36.023299999999999</v>
+      </c>
+      <c r="T42" s="5">
+        <v>35.1004</v>
+      </c>
+      <c r="U42" s="5">
+        <v>36.833399999999997</v>
+      </c>
+      <c r="V42" s="5">
+        <v>33.423000000000002</v>
+      </c>
       <c r="W42" s="1"/>
-      <c r="X42" s="6"/>
+      <c r="X42" s="6">
+        <v>30.346</v>
+      </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -3195,29 +3411,65 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="3">
+        <v>9.64</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9.31</v>
+      </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="33">
+        <v>8.9878</v>
+      </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="J44" s="2">
+        <v>16.103899999999999</v>
+      </c>
+      <c r="K44" s="2">
+        <v>15.858700000000001</v>
+      </c>
+      <c r="L44" s="2">
+        <v>15.8514</v>
+      </c>
+      <c r="M44" s="2">
+        <v>15.333299999999999</v>
+      </c>
+      <c r="N44" s="2">
+        <v>17.4419</v>
+      </c>
       <c r="O44" s="9"/>
-      <c r="P44" s="6"/>
+      <c r="P44" s="6">
+        <v>15.1424</v>
+      </c>
       <c r="Q44" s="31"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
+      <c r="R44" s="5">
+        <v>25.587</v>
+      </c>
+      <c r="S44" s="5">
+        <v>25.476199999999999</v>
+      </c>
+      <c r="T44" s="5">
+        <v>24.3551</v>
+      </c>
+      <c r="U44" s="5">
+        <v>22.9908</v>
+      </c>
+      <c r="V44" s="5">
+        <v>24.884599999999999</v>
+      </c>
       <c r="W44" s="1"/>
-      <c r="X44" s="6"/>
+      <c r="X44" s="6">
+        <v>23.356000000000002</v>
+      </c>
       <c r="Y44" s="32"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -3992,23 +4244,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.059000000000001</v>
+        <v>11.171764705882353</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.332000000000001</v>
+        <v>11.515882352941176</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.506000000000002</v>
+        <v>11.695294117647059</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>11.959999999999999</v>
+        <v>11.794117647058824</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.179999999999998</v>
+        <v>11.445876470588235</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4016,7 +4268,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>10.49587</v>
+        <v>10.602894117647061</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4024,23 +4276,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.127269999999999</v>
+        <v>19.169899999999998</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.32545</v>
+        <v>20.446441176470589</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.937279999999998</v>
+        <v>20.362605882352938</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>20.047360000000001</v>
+        <v>19.734000000000002</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>19.803989999999999</v>
+        <v>20.014576470588235</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4048,7 +4300,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.547160000000002</v>
+        <v>18.445535294117651</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4056,23 +4308,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>30.209620000000001</v>
+        <v>30.522741176470589</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.187820000000002</v>
+        <v>32.45356470588235</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>31.9587</v>
+        <v>32.429400000000001</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.540859999999995</v>
+        <v>32.64142352941176</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.286880000000004</v>
+        <v>32.785982352941176</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4080,7 +4332,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>28.982859999999999</v>
+        <v>29.384994117647057</v>
       </c>
       <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -864,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1974,29 +1974,65 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="3">
+        <v>19.52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18.219899999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20.65</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17.84</v>
+      </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="33">
+        <v>17.37</v>
+      </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="J18" s="2">
+        <v>28.373999999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>31.3185</v>
+      </c>
+      <c r="L18" s="2">
+        <v>25.970500000000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>27.68</v>
+      </c>
+      <c r="N18" s="2">
+        <v>32.086500000000001</v>
+      </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="6"/>
+      <c r="P18" s="6">
+        <v>26.702400000000001</v>
+      </c>
       <c r="Q18" s="31"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="R18" s="5">
+        <v>50.816400000000002</v>
+      </c>
+      <c r="S18" s="5">
+        <v>43.576000000000001</v>
+      </c>
+      <c r="T18" s="5">
+        <v>48.048499999999997</v>
+      </c>
+      <c r="U18" s="5">
+        <v>44.884399999999999</v>
+      </c>
+      <c r="V18" s="5">
+        <v>42.322110000000002</v>
+      </c>
       <c r="W18" s="1"/>
-      <c r="X18" s="6"/>
+      <c r="X18" s="6">
+        <v>42.814500000000002</v>
+      </c>
       <c r="Y18" s="32"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -2166,29 +2202,65 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="3">
+        <v>8.14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.83</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.37</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7.78</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7.79</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="38">
+        <v>7.3985000000000003</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="J22" s="2">
+        <v>14.0677</v>
+      </c>
+      <c r="K22" s="2">
+        <v>13.622</v>
+      </c>
+      <c r="L22" s="2">
+        <v>13.194100000000001</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13.4457</v>
+      </c>
+      <c r="N22" s="2">
+        <v>13.827</v>
+      </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>13.180999999999999</v>
+      </c>
       <c r="Q22" s="31"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="R22" s="5">
+        <v>22.334700000000002</v>
+      </c>
+      <c r="S22" s="5">
+        <v>22.1389</v>
+      </c>
+      <c r="T22" s="5">
+        <v>21.982099999999999</v>
+      </c>
+      <c r="U22" s="5">
+        <v>21.099</v>
+      </c>
+      <c r="V22" s="5">
+        <v>20.626000000000001</v>
+      </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="6"/>
+      <c r="X22" s="6">
+        <v>20.6111</v>
+      </c>
       <c r="Y22" s="32"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2215,29 +2287,65 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7.81</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.58</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7.91</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7.25</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="38">
+        <v>6.8258999999999999</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="J23" s="2">
+        <v>11.311500000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>12.022600000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>11.7774</v>
+      </c>
+      <c r="M23" s="2">
+        <v>12.065200000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>11.4171</v>
+      </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="6">
+        <v>11.102</v>
+      </c>
       <c r="Q23" s="31"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="R23" s="5">
+        <v>16.133800000000001</v>
+      </c>
+      <c r="S23" s="5">
+        <v>16.616099999999999</v>
+      </c>
+      <c r="T23" s="5">
+        <v>15.6106</v>
+      </c>
+      <c r="U23" s="5">
+        <v>16.810300000000002</v>
+      </c>
+      <c r="V23" s="5">
+        <v>14.6387</v>
+      </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="6"/>
+      <c r="X23" s="6">
+        <v>14.878</v>
+      </c>
       <c r="Y23" s="32"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -2313,29 +2421,65 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.77</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.03</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.56</v>
+      </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="38">
+        <v>6.4771999999999998</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="J25" s="2">
+        <v>12.226800000000001</v>
+      </c>
+      <c r="K25" s="2">
+        <v>11.741400000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11.313599999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>12.3477</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12.5197</v>
+      </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="6"/>
+      <c r="P25" s="6">
+        <v>11.4572</v>
+      </c>
       <c r="Q25" s="31"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="R25" s="5">
+        <v>20.426400000000001</v>
+      </c>
+      <c r="S25" s="5">
+        <v>20.0852</v>
+      </c>
+      <c r="T25" s="5">
+        <v>19.147500000000001</v>
+      </c>
+      <c r="U25" s="5">
+        <v>20.393899999999999</v>
+      </c>
+      <c r="V25" s="5">
+        <v>18.995000000000001</v>
+      </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="6"/>
+      <c r="X25" s="6">
+        <v>19.097300000000001</v>
+      </c>
       <c r="Y25" s="32"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2362,29 +2506,65 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="3">
+        <v>13.96</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15.81</v>
+      </c>
+      <c r="D26" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15.97</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13.91</v>
+      </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="38">
+        <v>13.8339</v>
+      </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="J26" s="2">
+        <v>22.480399999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <v>23.736999999999998</v>
+      </c>
+      <c r="L26" s="2">
+        <v>23.408300000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>25.3811</v>
+      </c>
+      <c r="N26" s="2">
+        <v>23.105799999999999</v>
+      </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="6"/>
+      <c r="P26" s="6">
+        <v>22.357800000000001</v>
+      </c>
       <c r="Q26" s="31"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="R26" s="5">
+        <v>35.3658</v>
+      </c>
+      <c r="S26" s="5">
+        <v>37.1614</v>
+      </c>
+      <c r="T26" s="5">
+        <v>34.681600000000003</v>
+      </c>
+      <c r="U26" s="5">
+        <v>33.908900000000003</v>
+      </c>
+      <c r="V26" s="5">
+        <v>35.7136</v>
+      </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="6"/>
+      <c r="X26" s="6">
+        <v>33.968899999999998</v>
+      </c>
       <c r="Y26" s="32"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2460,28 +2640,64 @@
       <c r="A28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10.47</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10.08</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9.86</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="38">
+        <v>9.73</v>
+      </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="J28" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15.7233</v>
+      </c>
+      <c r="L28" s="2">
+        <v>15.401899999999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>15.0655</v>
+      </c>
+      <c r="N28" s="2">
+        <v>15.096399999999999</v>
+      </c>
       <c r="O28" s="9"/>
-      <c r="P28" s="6"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="P28" s="6">
+        <v>14.653600000000001</v>
+      </c>
+      <c r="R28" s="5">
+        <v>23.989799999999999</v>
+      </c>
+      <c r="S28" s="5">
+        <v>26.255700000000001</v>
+      </c>
+      <c r="T28" s="5">
+        <v>24.3643</v>
+      </c>
+      <c r="U28" s="5">
+        <v>23.488700000000001</v>
+      </c>
+      <c r="V28" s="5">
+        <v>23.5383</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="6"/>
+      <c r="X28" s="6">
+        <v>22.9056</v>
+      </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2507,29 +2723,65 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="3">
+        <v>10.97</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="F29" s="3">
+        <v>11.2</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="38">
+        <v>10.4977</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="J29" s="2">
+        <v>21.837499999999999</v>
+      </c>
+      <c r="K29" s="2">
+        <v>21.4224</v>
+      </c>
+      <c r="L29" s="2">
+        <v>20.874099999999999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>20.641300000000001</v>
+      </c>
+      <c r="N29" s="2">
+        <v>19.796600000000002</v>
+      </c>
       <c r="O29" s="9"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="6">
+        <v>19.624600000000001</v>
+      </c>
       <c r="Q29" s="31"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="R29" s="5">
+        <v>37.251800000000003</v>
+      </c>
+      <c r="S29" s="5">
+        <v>36.698999999999998</v>
+      </c>
+      <c r="T29" s="5">
+        <v>34.036200000000001</v>
+      </c>
+      <c r="U29" s="5">
+        <v>42.721299999999999</v>
+      </c>
+      <c r="V29" s="5">
+        <v>37.539299999999997</v>
+      </c>
       <c r="W29" s="1"/>
-      <c r="X29" s="6"/>
+      <c r="X29" s="6">
+        <v>34.961300000000001</v>
+      </c>
       <c r="Y29" s="32"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2556,29 +2808,65 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3">
+        <v>12.82</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12.68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12.82</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13.24</v>
+      </c>
+      <c r="F30" s="3">
+        <v>13.17</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="38">
+        <v>12.123699999999999</v>
+      </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="J30" s="2">
+        <v>19.646899999999999</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22.454899999999999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>24.164899999999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>22.403199999999998</v>
+      </c>
+      <c r="N30" s="2">
+        <v>22.5335</v>
+      </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="6">
+        <v>19.844899999999999</v>
+      </c>
       <c r="Q30" s="31"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="5">
+        <v>32.524700000000003</v>
+      </c>
+      <c r="S30" s="5">
+        <v>36.761499999999998</v>
+      </c>
+      <c r="T30" s="5">
+        <v>37.239400000000003</v>
+      </c>
+      <c r="U30" s="5">
+        <v>38.037100000000002</v>
+      </c>
+      <c r="V30" s="5">
+        <v>35.399500000000003</v>
+      </c>
       <c r="W30" s="1"/>
-      <c r="X30" s="6"/>
+      <c r="X30" s="6">
+        <v>32.718200000000003</v>
+      </c>
       <c r="Y30" s="32"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -2605,29 +2893,65 @@
       <c r="A31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="3">
+        <v>11.77</v>
+      </c>
+      <c r="C31" s="3">
+        <v>11.92</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12.37</v>
+      </c>
+      <c r="E31" s="3">
+        <v>13.08</v>
+      </c>
+      <c r="F31" s="3">
+        <v>12.23</v>
+      </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="33">
+        <v>11.162100000000001</v>
+      </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="J31" s="2">
+        <v>21.390599999999999</v>
+      </c>
+      <c r="K31" s="2">
+        <v>25.3353</v>
+      </c>
+      <c r="L31" s="2">
+        <v>25.1663</v>
+      </c>
+      <c r="M31" s="2">
+        <v>24.869499999999999</v>
+      </c>
+      <c r="N31" s="2">
+        <v>23.506599999999999</v>
+      </c>
       <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
+      <c r="P31" s="6">
+        <v>21.0106</v>
+      </c>
       <c r="Q31" s="31"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="R31" s="5">
+        <v>34.984900000000003</v>
+      </c>
+      <c r="S31" s="5">
+        <v>42.4313</v>
+      </c>
+      <c r="T31" s="5">
+        <v>43.373699999999999</v>
+      </c>
+      <c r="U31" s="5">
+        <v>43.255400000000002</v>
+      </c>
+      <c r="V31" s="5">
+        <v>42.681899999999999</v>
+      </c>
       <c r="W31" s="1"/>
-      <c r="X31" s="6"/>
+      <c r="X31" s="6">
+        <v>37.010399999999997</v>
+      </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -2653,29 +2977,65 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3">
+        <v>20.7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>19.87</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20.219899999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20.379899999999999</v>
+      </c>
+      <c r="F32" s="3">
+        <v>19.91</v>
+      </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="33">
+        <v>19.559200000000001</v>
+      </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="J32" s="2">
+        <v>33.178100000000001</v>
+      </c>
+      <c r="K32" s="2">
+        <v>31.084900000000001</v>
+      </c>
+      <c r="L32" s="2">
+        <v>32.513199999999998</v>
+      </c>
+      <c r="M32" s="2">
+        <v>32.077800000000003</v>
+      </c>
+      <c r="N32" s="2">
+        <v>31.6006</v>
+      </c>
       <c r="O32" s="9"/>
-      <c r="P32" s="6"/>
+      <c r="P32" s="6">
+        <v>31.0657</v>
+      </c>
       <c r="Q32" s="31"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="R32" s="5">
+        <v>49.518300000000004</v>
+      </c>
+      <c r="S32" s="5">
+        <v>51.7012</v>
+      </c>
+      <c r="T32" s="5">
+        <v>52.819000000000003</v>
+      </c>
+      <c r="U32" s="5">
+        <v>48.501399999999997</v>
+      </c>
+      <c r="V32" s="5">
+        <v>48.700899999999997</v>
+      </c>
       <c r="W32" s="1"/>
-      <c r="X32" s="6"/>
+      <c r="X32" s="6">
+        <v>47.613999999999997</v>
+      </c>
       <c r="Y32" s="32"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -2702,29 +3062,65 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="3">
+        <v>11.13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10.82</v>
+      </c>
+      <c r="D33" s="3">
+        <v>11.24</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10.65</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10.46</v>
+      </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="33">
+        <v>10.4177</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="J33" s="2">
+        <v>17.078600000000002</v>
+      </c>
+      <c r="K33" s="2">
+        <v>16.301600000000001</v>
+      </c>
+      <c r="L33" s="2">
+        <v>17.3843</v>
+      </c>
+      <c r="M33" s="2">
+        <v>16.598700000000001</v>
+      </c>
+      <c r="N33" s="2">
+        <v>16.867000000000001</v>
+      </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="6"/>
+      <c r="P33" s="6">
+        <v>16.088699999999999</v>
+      </c>
       <c r="Q33" s="31"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="R33" s="5">
+        <v>25.221</v>
+      </c>
+      <c r="S33" s="5">
+        <v>24.633299999999998</v>
+      </c>
+      <c r="T33" s="5">
+        <v>25.818899999999999</v>
+      </c>
+      <c r="U33" s="5">
+        <v>25.512799999999999</v>
+      </c>
+      <c r="V33" s="5">
+        <v>27.572199999999999</v>
+      </c>
       <c r="W33" s="1"/>
-      <c r="X33" s="6"/>
+      <c r="X33" s="6">
+        <v>23.8932</v>
+      </c>
       <c r="Y33" s="32"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -2751,29 +3147,65 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>14.61</v>
+      </c>
+      <c r="D34" s="3">
+        <v>15.59</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15.08</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13.14</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="33">
+        <v>12.562799999999999</v>
+      </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="J34" s="2">
+        <v>25.111599999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>27.5105</v>
+      </c>
+      <c r="L34" s="2">
+        <v>29.375699999999998</v>
+      </c>
+      <c r="M34" s="2">
+        <v>28.63</v>
+      </c>
+      <c r="N34" s="2">
+        <v>25.489100000000001</v>
+      </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="6"/>
+      <c r="P34" s="6">
+        <v>24.7836</v>
+      </c>
       <c r="Q34" s="31"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="R34" s="5">
+        <v>46.264800000000001</v>
+      </c>
+      <c r="S34" s="5">
+        <v>46.610999999999997</v>
+      </c>
+      <c r="T34" s="5">
+        <v>46.446100000000001</v>
+      </c>
+      <c r="U34" s="5">
+        <v>47.366399999999999</v>
+      </c>
+      <c r="V34" s="5">
+        <v>47.5702</v>
+      </c>
       <c r="W34" s="1"/>
-      <c r="X34" s="6"/>
+      <c r="X34" s="6">
+        <v>44.7881</v>
+      </c>
       <c r="Y34" s="32"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -2849,29 +3281,65 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="3">
+        <v>10.25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F36" s="3">
+        <v>9.84</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="33"/>
+      <c r="H36" s="33">
+        <v>8.9</v>
+      </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="J36" s="2">
+        <v>18.4315</v>
+      </c>
+      <c r="K36" s="2">
+        <v>18.982500000000002</v>
+      </c>
+      <c r="L36" s="2">
+        <v>19.224699999999999</v>
+      </c>
+      <c r="M36" s="2">
+        <v>18.435700000000001</v>
+      </c>
+      <c r="N36" s="2">
+        <v>16.4544</v>
+      </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="6"/>
+      <c r="P36" s="6">
+        <v>16.355799999999999</v>
+      </c>
       <c r="Q36" s="31"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="R36" s="5">
+        <v>30.546099999999999</v>
+      </c>
+      <c r="S36" s="5">
+        <v>31.8232</v>
+      </c>
+      <c r="T36" s="5">
+        <v>30.659600000000001</v>
+      </c>
+      <c r="U36" s="5">
+        <v>30.768799999999999</v>
+      </c>
+      <c r="V36" s="5">
+        <v>29.737100000000002</v>
+      </c>
       <c r="W36" s="1"/>
-      <c r="X36" s="6"/>
+      <c r="X36" s="6">
+        <v>28.849799999999998</v>
+      </c>
       <c r="Y36" s="32"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -4244,23 +4712,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.171764705882353</v>
+        <v>11.530666666666667</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.515882352941176</v>
+        <v>11.843663333333332</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.695294117647059</v>
+        <v>11.955663333333336</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>11.794117647058824</v>
+        <v>12.174996666666667</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.445876470588235</v>
+        <v>11.591330000000001</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4268,7 +4736,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>10.602894117647061</v>
+        <v>10.903596666666667</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4276,23 +4744,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.169899999999998</v>
+        <v>19.540783333333334</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.446441176470589</v>
+        <v>20.628213333333338</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.362605882352938</v>
+        <v>20.531109999999995</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>19.734000000000002</v>
+        <v>20.170646666666666</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.014576470588235</v>
+        <v>20.151603333333338</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4300,7 +4768,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.445535294117651</v>
+        <v>18.726733333333332</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4308,23 +4776,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>30.522741176470589</v>
+        <v>31.475503333333343</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.45356470588235</v>
+        <v>32.940146666666664</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.429400000000001</v>
+        <v>32.850909999999992</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.64142352941176</v>
+        <v>33.055086666666661</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.785982352941176</v>
+        <v>32.746550333333332</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4332,7 +4800,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>29.384994117647057</v>
+        <v>30.121843333333331</v>
       </c>
       <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ML_Time-Series_EDA\Data_Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -594,7 +599,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -875,7 +880,7 @@
   <dimension ref="A1:AU59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="X58" sqref="X58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -657,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -692,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -879,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X58" sqref="X58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -880,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:AU59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1078,65 +1078,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="18">
-        <v>12.17</v>
+        <v>11.709199999999999</v>
       </c>
       <c r="C4" s="18">
-        <v>11.69</v>
+        <v>11.4374</v>
       </c>
       <c r="D4" s="18">
-        <v>11.3</v>
+        <v>11.3916</v>
       </c>
       <c r="E4" s="18">
-        <v>12.07</v>
+        <v>13.649800000000001</v>
       </c>
       <c r="F4" s="18">
-        <v>11.5</v>
+        <v>11.103300000000001</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="28">
-        <v>11.1874</v>
+        <v>11.241199999999999</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="18">
-        <v>19.915299999999998</v>
+        <v>19.602</v>
       </c>
       <c r="K4" s="18">
-        <v>20.2331</v>
+        <v>21.245699999999999</v>
       </c>
       <c r="L4" s="18">
-        <v>19.850899999999999</v>
+        <v>18.859500000000001</v>
       </c>
       <c r="M4" s="18">
-        <v>19.928799999999999</v>
+        <v>20.073799999999999</v>
       </c>
       <c r="N4" s="18">
-        <v>19.0487</v>
+        <v>19.016500000000001</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="18">
-        <v>18.9709</v>
+        <v>18.651299999999999</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18">
-        <v>35.000700000000002</v>
+        <v>35.019100000000002</v>
       </c>
       <c r="S4" s="18">
-        <v>35.209600000000002</v>
+        <v>33.761899999999997</v>
       </c>
       <c r="T4" s="18">
-        <v>36.484400000000001</v>
+        <v>34.416899999999998</v>
       </c>
       <c r="U4" s="18">
-        <v>33.965200000000003</v>
+        <v>34.055399999999999</v>
       </c>
       <c r="V4" s="18">
-        <v>34.357100000000003</v>
+        <v>34.695700000000002</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="20">
-        <v>33.6554</v>
-      </c>
-      <c r="Y4" s="36"/>
+        <v>33.832999999999998</v>
+      </c>
+      <c r="Y4" s="36">
+        <v>999</v>
+      </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="18"/>
@@ -1460,20 +1462,20 @@
         <v>15.13</v>
       </c>
       <c r="C11" s="3">
-        <v>15.62</v>
+        <v>15.582100000000001</v>
       </c>
       <c r="D11" s="34">
         <v>18.600000000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>17.62</v>
+        <v>17.633199999999999</v>
       </c>
       <c r="F11" s="3">
         <v>16.2</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="33">
-        <v>15.0748</v>
+        <v>15.868399999999999</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="2">
@@ -1493,7 +1495,7 @@
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="6">
-        <v>23.8096</v>
+        <v>24.5471</v>
       </c>
       <c r="Q11" s="31"/>
       <c r="R11" s="5">
@@ -1503,19 +1505,21 @@
         <v>45.5229</v>
       </c>
       <c r="T11" s="35">
-        <v>43.484699999999997</v>
+        <v>40.2072</v>
       </c>
       <c r="U11" s="35">
-        <v>55.093499999999999</v>
+        <v>53.170299999999997</v>
       </c>
       <c r="V11" s="5">
         <v>46.128900000000002</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="6">
-        <v>32.911000000000001</v>
-      </c>
-      <c r="Y11" s="32"/>
+        <v>45.529400000000003</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>999</v>
+      </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -4717,23 +4721,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.530666666666667</v>
+        <v>11.515306666666667</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.843663333333332</v>
+        <v>11.833979999999999</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.955663333333336</v>
+        <v>11.958716666666668</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.174996666666667</v>
+        <v>12.228096666666668</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.591330000000001</v>
+        <v>11.578106666666667</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4741,7 +4745,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>10.903596666666667</v>
+        <v>10.931843333333335</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4749,23 +4753,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.540783333333334</v>
+        <v>19.530340000000002</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.628213333333338</v>
+        <v>20.661966666666668</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.531109999999995</v>
+        <v>20.498063333333327</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>20.170646666666666</v>
+        <v>20.17548</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.151603333333338</v>
+        <v>20.15053</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4773,7 +4777,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.726733333333332</v>
+        <v>18.74066333333333</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4781,23 +4785,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.475503333333343</v>
+        <v>31.476116666666673</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.940146666666664</v>
+        <v>32.891890000000004</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.850909999999992</v>
+        <v>32.672743333333329</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>33.055086666666661</v>
+        <v>32.993986666666657</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.746550333333332</v>
+        <v>32.757837000000002</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4805,11 +4809,11 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>30.121843333333331</v>
-      </c>
-      <c r="Y58" s="4" t="e">
+        <v>30.548376666666666</v>
+      </c>
+      <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:46">

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ML_Time-Series_EDA\Data_Result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>1_Sam</t>
   </si>
@@ -311,13 +306,29 @@
   </si>
   <si>
     <t>GA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -599,7 +610,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,7 +668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -692,7 +703,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -869,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1136,8 +1147,8 @@
       <c r="X4" s="20">
         <v>33.832999999999998</v>
       </c>
-      <c r="Y4" s="36">
-        <v>999</v>
+      <c r="Y4" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
@@ -1517,8 +1528,8 @@
       <c r="X11" s="6">
         <v>45.529400000000003</v>
       </c>
-      <c r="Y11" s="32">
-        <v>999</v>
+      <c r="Y11" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1562,7 +1573,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="33">
-        <v>9.4084000000000003</v>
+        <v>9.5009999999999994</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="2">
@@ -1582,7 +1593,7 @@
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="6">
-        <v>19.603200000000001</v>
+        <v>19.831199999999999</v>
       </c>
       <c r="Q12" s="31"/>
       <c r="R12" s="5">
@@ -1602,9 +1613,11 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="13">
-        <v>27.424700000000001</v>
-      </c>
-      <c r="Y12" s="32"/>
+        <v>28.098299999999998</v>
+      </c>
+      <c r="Y12" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
@@ -1745,11 +1758,11 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="40">
-        <v>9.01</v>
+        <v>10.547499999999999</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="2">
-        <v>17.100000000000001</v>
+        <v>17.104500000000002</v>
       </c>
       <c r="K15" s="2">
         <v>19.950600000000001</v>
@@ -1765,7 +1778,7 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="6">
-        <v>17.4557</v>
+        <v>20.6572</v>
       </c>
       <c r="Q15" s="31"/>
       <c r="R15" s="5">
@@ -1785,9 +1798,11 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="6">
-        <v>25.1357</v>
-      </c>
-      <c r="Y15" s="32"/>
+        <v>30.161799999999999</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
@@ -4486,7 +4501,7 @@
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="33">
-        <v>12.1465</v>
+        <v>12.311</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="2">
@@ -4506,7 +4521,7 @@
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="6">
-        <v>24.220300000000002</v>
+        <v>26.153400000000001</v>
       </c>
       <c r="Q53" s="31"/>
       <c r="R53" s="5">
@@ -4526,9 +4541,11 @@
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="6">
-        <v>36.112200000000001</v>
-      </c>
-      <c r="Y53" s="32"/>
+        <v>36.657699999999998</v>
+      </c>
+      <c r="Y53" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
@@ -4555,30 +4572,30 @@
         <v>50</v>
       </c>
       <c r="B54" s="3">
-        <v>15.12</v>
+        <v>14.9521</v>
       </c>
       <c r="C54" s="3">
-        <v>15.72</v>
+        <v>15.673299999999999</v>
       </c>
       <c r="D54" s="3">
-        <v>15.23</v>
+        <v>15.2254</v>
       </c>
       <c r="E54" s="3">
-        <v>15.92</v>
+        <v>15.9232</v>
       </c>
       <c r="F54" s="3">
-        <v>14.1</v>
+        <v>14.0969</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="33">
-        <v>13.8538</v>
+        <v>14.4123</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="2">
-        <v>23.110600000000002</v>
+        <v>22.918199999999999</v>
       </c>
       <c r="K54" s="2">
-        <v>25.3093</v>
+        <v>25.258800000000001</v>
       </c>
       <c r="L54" s="2">
         <v>23.991900000000001</v>
@@ -4591,11 +4608,11 @@
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="6">
-        <v>22.0504</v>
+        <v>23.0367</v>
       </c>
       <c r="Q54" s="31"/>
       <c r="R54" s="5">
-        <v>37.914400000000001</v>
+        <v>37.8247</v>
       </c>
       <c r="S54" s="5">
         <v>38.514299999999999</v>
@@ -4611,9 +4628,11 @@
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="6">
-        <v>35.496400000000001</v>
-      </c>
-      <c r="Y54" s="32"/>
+        <v>36.153500000000001</v>
+      </c>
+      <c r="Y54" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
@@ -4721,23 +4740,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.515306666666667</v>
+        <v>11.50971</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.833979999999999</v>
+        <v>11.832423333333331</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.958716666666668</v>
+        <v>11.958563333333332</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.228096666666668</v>
+        <v>12.228203333333335</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.578106666666667</v>
+        <v>11.578003333333333</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4745,7 +4764,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>10.931843333333335</v>
+        <v>11.01028</v>
       </c>
       <c r="I58" s="4" t="e">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4753,11 +4772,11 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.530340000000002</v>
+        <v>19.524076666666666</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.661966666666668</v>
+        <v>20.660283333333332</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
@@ -4777,7 +4796,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.74066333333333</v>
+        <v>18.952293333333333</v>
       </c>
       <c r="Q58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4785,7 +4804,7 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.476116666666673</v>
+        <v>31.473126666666676</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
@@ -4809,11 +4828,11 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>30.548376666666666</v>
-      </c>
-      <c r="Y58" s="4">
+        <v>30.778453333333335</v>
+      </c>
+      <c r="Y58" s="4" t="e">
         <f t="shared" si="2"/>
-        <v>999</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:46">

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ML_Time-Series_EDA\Data_Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Val_BG_compare_with_naive_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>1_Sam</t>
   </si>
@@ -306,29 +311,13 @@
   </si>
   <si>
     <t>GA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -458,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -475,13 +464,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +617,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU59"/>
+  <dimension ref="A1:AU97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1107,7 +1125,9 @@
       <c r="H4" s="28">
         <v>11.241199999999999</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>16.9072</v>
+      </c>
       <c r="J4" s="18">
         <v>19.602</v>
       </c>
@@ -1127,7 +1147,9 @@
       <c r="P4" s="18">
         <v>18.651299999999999</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="18">
+        <v>25.550999999999998</v>
+      </c>
       <c r="R4" s="18">
         <v>35.019100000000002</v>
       </c>
@@ -1147,8 +1169,8 @@
       <c r="X4" s="20">
         <v>33.832999999999998</v>
       </c>
-      <c r="Y4" s="36" t="s">
-        <v>85</v>
+      <c r="Y4" s="36">
+        <v>40.4163</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
@@ -1488,7 +1510,9 @@
       <c r="H11" s="33">
         <v>15.868399999999999</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>18.741800000000001</v>
+      </c>
       <c r="J11" s="2">
         <v>24.436800000000002</v>
       </c>
@@ -1508,7 +1532,9 @@
       <c r="P11" s="6">
         <v>24.5471</v>
       </c>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="31">
+        <v>27.067599999999999</v>
+      </c>
       <c r="R11" s="5">
         <v>34.2134</v>
       </c>
@@ -1528,8 +1554,8 @@
       <c r="X11" s="6">
         <v>45.529400000000003</v>
       </c>
-      <c r="Y11" s="32" t="s">
-        <v>86</v>
+      <c r="Y11" s="32">
+        <v>36.418599999999998</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1575,7 +1601,9 @@
       <c r="H12" s="33">
         <v>9.5009999999999994</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>13.225199999999999</v>
+      </c>
       <c r="J12" s="2">
         <v>19.8355</v>
       </c>
@@ -1595,7 +1623,9 @@
       <c r="P12" s="6">
         <v>19.831199999999999</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="31">
+        <v>22.2546</v>
+      </c>
       <c r="R12" s="5">
         <v>29.255299999999998</v>
       </c>
@@ -1615,8 +1645,8 @@
       <c r="X12" s="13">
         <v>28.098299999999998</v>
       </c>
-      <c r="Y12" s="32" t="s">
-        <v>85</v>
+      <c r="Y12" s="32">
+        <v>34.348700000000001</v>
       </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1760,7 +1790,9 @@
       <c r="H15" s="40">
         <v>10.547499999999999</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>11.865500000000001</v>
+      </c>
       <c r="J15" s="2">
         <v>17.104500000000002</v>
       </c>
@@ -1780,7 +1812,9 @@
       <c r="P15" s="6">
         <v>20.6572</v>
       </c>
-      <c r="Q15" s="31"/>
+      <c r="Q15" s="31">
+        <v>19.810400000000001</v>
+      </c>
       <c r="R15" s="5">
         <v>25.044699999999999</v>
       </c>
@@ -1800,8 +1834,8 @@
       <c r="X15" s="6">
         <v>30.161799999999999</v>
       </c>
-      <c r="Y15" s="32" t="s">
-        <v>85</v>
+      <c r="Y15" s="32">
+        <v>31.7392</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -1845,9 +1879,11 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="38">
-        <v>8.3646999999999991</v>
-      </c>
-      <c r="I16" s="6"/>
+        <v>8.5629000000000008</v>
+      </c>
+      <c r="I16" s="6">
+        <v>10.468299999999999</v>
+      </c>
       <c r="J16" s="2">
         <v>13.974600000000001</v>
       </c>
@@ -1865,9 +1901,11 @@
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="6">
-        <v>13.4811</v>
-      </c>
-      <c r="Q16" s="31"/>
+        <v>13.510899999999999</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>15.8695</v>
+      </c>
       <c r="R16" s="5">
         <v>23.8886</v>
       </c>
@@ -1885,9 +1923,11 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="6">
-        <v>22.785599999999999</v>
-      </c>
-      <c r="Y16" s="32"/>
+        <v>23.089300000000001</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>25.4726</v>
+      </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -1914,65 +1954,71 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>17.670000000000002</v>
+        <v>17.7727</v>
       </c>
       <c r="C17" s="3">
-        <v>19.190000000000001</v>
+        <v>19.091699999999999</v>
       </c>
       <c r="D17" s="3">
-        <v>19.11</v>
+        <v>18.930700000000002</v>
       </c>
       <c r="E17" s="3">
-        <v>18.16</v>
+        <v>20.241599999999998</v>
       </c>
       <c r="F17" s="3">
-        <v>17.969899999999999</v>
+        <v>18.0532</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="33">
-        <v>17.125900000000001</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>18.376799999999999</v>
+      </c>
+      <c r="I17" s="6">
+        <v>21.612400000000001</v>
+      </c>
       <c r="J17" s="2">
-        <v>29.023299999999999</v>
+        <v>29.9693</v>
       </c>
       <c r="K17" s="2">
-        <v>32.798400000000001</v>
+        <v>34.114400000000003</v>
       </c>
       <c r="L17" s="2">
-        <v>30.480799999999999</v>
+        <v>33.2072</v>
       </c>
       <c r="M17" s="2">
-        <v>30.942499999999999</v>
+        <v>29.477499999999999</v>
       </c>
       <c r="N17" s="2">
-        <v>31.052800000000001</v>
+        <v>28.749199999999998</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="6">
-        <v>28.316199999999998</v>
-      </c>
-      <c r="Q17" s="31"/>
+        <v>30.046099999999999</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>32.153500000000001</v>
+      </c>
       <c r="R17" s="5">
-        <v>45.5655</v>
+        <v>46.142899999999997</v>
       </c>
       <c r="S17" s="5">
-        <v>45.560400000000001</v>
+        <v>47.607700000000001</v>
       </c>
       <c r="T17" s="5">
-        <v>47.475499999999997</v>
+        <v>45.274999999999999</v>
       </c>
       <c r="U17" s="5">
-        <v>47.491900000000001</v>
+        <v>45.284799999999997</v>
       </c>
       <c r="V17" s="5">
-        <v>47.476100000000002</v>
+        <v>47.167499999999997</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="6">
-        <v>45.015500000000003</v>
-      </c>
-      <c r="Y17" s="32"/>
+        <v>44.645699999999998</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>45.335500000000003</v>
+      </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -1999,63 +2045,63 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>19.52</v>
+        <v>18.621500000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>18.219899999999999</v>
+        <v>17.152799999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>17.329999999999998</v>
+        <v>17.136099999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>20.65</v>
+        <v>17.1142</v>
       </c>
       <c r="F18" s="3">
-        <v>17.84</v>
+        <v>18.1691</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="33">
-        <v>17.37</v>
+        <v>16.991900000000001</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="2">
-        <v>28.373999999999999</v>
+        <v>29.721699999999998</v>
       </c>
       <c r="K18" s="2">
-        <v>31.3185</v>
+        <v>32.227699999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>25.970500000000001</v>
+        <v>34.667000000000002</v>
       </c>
       <c r="M18" s="2">
-        <v>27.68</v>
+        <v>25.912800000000001</v>
       </c>
       <c r="N18" s="2">
-        <v>32.086500000000001</v>
+        <v>31.133500000000002</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="6">
-        <v>26.702400000000001</v>
+        <v>27.374500000000001</v>
       </c>
       <c r="Q18" s="31"/>
       <c r="R18" s="5">
-        <v>50.816400000000002</v>
+        <v>47.153199999999998</v>
       </c>
       <c r="S18" s="5">
-        <v>43.576000000000001</v>
+        <v>52.387999999999998</v>
       </c>
       <c r="T18" s="5">
-        <v>48.048499999999997</v>
+        <v>45.779699999999998</v>
       </c>
       <c r="U18" s="5">
-        <v>44.884399999999999</v>
+        <v>44.653399999999998</v>
       </c>
       <c r="V18" s="5">
-        <v>42.322110000000002</v>
+        <v>45.047699999999999</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="6">
-        <v>42.814500000000002</v>
+        <v>44.767499999999998</v>
       </c>
       <c r="Y18" s="32"/>
       <c r="AA18" s="3"/>
@@ -2226,65 +2272,29 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.83</v>
-      </c>
-      <c r="D22" s="3">
-        <v>7.37</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7.78</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7.79</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="38">
-        <v>7.3985000000000003</v>
-      </c>
+      <c r="H22" s="38"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="2">
-        <v>14.0677</v>
-      </c>
-      <c r="K22" s="2">
-        <v>13.622</v>
-      </c>
-      <c r="L22" s="2">
-        <v>13.194100000000001</v>
-      </c>
-      <c r="M22" s="2">
-        <v>13.4457</v>
-      </c>
-      <c r="N22" s="2">
-        <v>13.827</v>
-      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="6">
-        <v>13.180999999999999</v>
-      </c>
+      <c r="P22" s="6"/>
       <c r="Q22" s="31"/>
-      <c r="R22" s="5">
-        <v>22.334700000000002</v>
-      </c>
-      <c r="S22" s="5">
-        <v>22.1389</v>
-      </c>
-      <c r="T22" s="5">
-        <v>21.982099999999999</v>
-      </c>
-      <c r="U22" s="5">
-        <v>21.099</v>
-      </c>
-      <c r="V22" s="5">
-        <v>20.626000000000001</v>
-      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="6">
-        <v>20.6111</v>
-      </c>
+      <c r="X22" s="6"/>
       <c r="Y22" s="32"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2311,65 +2321,29 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>6.93</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.81</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7.58</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7.91</v>
-      </c>
-      <c r="F23" s="3">
-        <v>7.25</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="38">
-        <v>6.8258999999999999</v>
-      </c>
+      <c r="H23" s="38"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="2">
-        <v>11.311500000000001</v>
-      </c>
-      <c r="K23" s="2">
-        <v>12.022600000000001</v>
-      </c>
-      <c r="L23" s="2">
-        <v>11.7774</v>
-      </c>
-      <c r="M23" s="2">
-        <v>12.065200000000001</v>
-      </c>
-      <c r="N23" s="2">
-        <v>11.4171</v>
-      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="6">
-        <v>11.102</v>
-      </c>
+      <c r="P23" s="6"/>
       <c r="Q23" s="31"/>
-      <c r="R23" s="5">
-        <v>16.133800000000001</v>
-      </c>
-      <c r="S23" s="5">
-        <v>16.616099999999999</v>
-      </c>
-      <c r="T23" s="5">
-        <v>15.6106</v>
-      </c>
-      <c r="U23" s="5">
-        <v>16.810300000000002</v>
-      </c>
-      <c r="V23" s="5">
-        <v>14.6387</v>
-      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="6">
-        <v>14.878</v>
-      </c>
+      <c r="X23" s="6"/>
       <c r="Y23" s="32"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -2445,65 +2419,29 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
-        <v>6.73</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6.58</v>
-      </c>
-      <c r="D25" s="3">
-        <v>6.77</v>
-      </c>
-      <c r="E25" s="3">
-        <v>7.03</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6.56</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="38">
-        <v>6.4771999999999998</v>
-      </c>
+      <c r="H25" s="38"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="2">
-        <v>12.226800000000001</v>
-      </c>
-      <c r="K25" s="2">
-        <v>11.741400000000001</v>
-      </c>
-      <c r="L25" s="2">
-        <v>11.313599999999999</v>
-      </c>
-      <c r="M25" s="2">
-        <v>12.3477</v>
-      </c>
-      <c r="N25" s="2">
-        <v>12.5197</v>
-      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="6">
-        <v>11.4572</v>
-      </c>
+      <c r="P25" s="6"/>
       <c r="Q25" s="31"/>
-      <c r="R25" s="5">
-        <v>20.426400000000001</v>
-      </c>
-      <c r="S25" s="5">
-        <v>20.0852</v>
-      </c>
-      <c r="T25" s="5">
-        <v>19.147500000000001</v>
-      </c>
-      <c r="U25" s="5">
-        <v>20.393899999999999</v>
-      </c>
-      <c r="V25" s="5">
-        <v>18.995000000000001</v>
-      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="6">
-        <v>19.097300000000001</v>
-      </c>
+      <c r="X25" s="6"/>
       <c r="Y25" s="32"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2530,65 +2468,29 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>13.96</v>
-      </c>
-      <c r="C26" s="3">
-        <v>15.81</v>
-      </c>
-      <c r="D26" s="3">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="E26" s="3">
-        <v>15.97</v>
-      </c>
-      <c r="F26" s="3">
-        <v>13.91</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="38">
-        <v>13.8339</v>
-      </c>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="2">
-        <v>22.480399999999999</v>
-      </c>
-      <c r="K26" s="2">
-        <v>23.736999999999998</v>
-      </c>
-      <c r="L26" s="2">
-        <v>23.408300000000001</v>
-      </c>
-      <c r="M26" s="2">
-        <v>25.3811</v>
-      </c>
-      <c r="N26" s="2">
-        <v>23.105799999999999</v>
-      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="6">
-        <v>22.357800000000001</v>
-      </c>
+      <c r="P26" s="6"/>
       <c r="Q26" s="31"/>
-      <c r="R26" s="5">
-        <v>35.3658</v>
-      </c>
-      <c r="S26" s="5">
-        <v>37.1614</v>
-      </c>
-      <c r="T26" s="5">
-        <v>34.681600000000003</v>
-      </c>
-      <c r="U26" s="5">
-        <v>33.908900000000003</v>
-      </c>
-      <c r="V26" s="5">
-        <v>35.7136</v>
-      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="6">
-        <v>33.968899999999998</v>
-      </c>
+      <c r="X26" s="6"/>
       <c r="Y26" s="32"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2664,64 +2566,28 @@
       <c r="A28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10.47</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10.08</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="F28" s="3">
-        <v>9.86</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="38">
-        <v>9.73</v>
-      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="2">
-        <v>15.2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>15.7233</v>
-      </c>
-      <c r="L28" s="2">
-        <v>15.401899999999999</v>
-      </c>
-      <c r="M28" s="2">
-        <v>15.0655</v>
-      </c>
-      <c r="N28" s="2">
-        <v>15.096399999999999</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="6">
-        <v>14.653600000000001</v>
-      </c>
-      <c r="R28" s="5">
-        <v>23.989799999999999</v>
-      </c>
-      <c r="S28" s="5">
-        <v>26.255700000000001</v>
-      </c>
-      <c r="T28" s="5">
-        <v>24.3643</v>
-      </c>
-      <c r="U28" s="5">
-        <v>23.488700000000001</v>
-      </c>
-      <c r="V28" s="5">
-        <v>23.5383</v>
-      </c>
+      <c r="P28" s="6"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="6">
-        <v>22.9056</v>
-      </c>
+      <c r="X28" s="6"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2747,65 +2613,29 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
-        <v>10.97</v>
-      </c>
-      <c r="C29" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>13.49</v>
-      </c>
-      <c r="F29" s="3">
-        <v>11.2</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="38">
-        <v>10.4977</v>
-      </c>
+      <c r="H29" s="38"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="2">
-        <v>21.837499999999999</v>
-      </c>
-      <c r="K29" s="2">
-        <v>21.4224</v>
-      </c>
-      <c r="L29" s="2">
-        <v>20.874099999999999</v>
-      </c>
-      <c r="M29" s="2">
-        <v>20.641300000000001</v>
-      </c>
-      <c r="N29" s="2">
-        <v>19.796600000000002</v>
-      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="6">
-        <v>19.624600000000001</v>
-      </c>
+      <c r="P29" s="6"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="5">
-        <v>37.251800000000003</v>
-      </c>
-      <c r="S29" s="5">
-        <v>36.698999999999998</v>
-      </c>
-      <c r="T29" s="5">
-        <v>34.036200000000001</v>
-      </c>
-      <c r="U29" s="5">
-        <v>42.721299999999999</v>
-      </c>
-      <c r="V29" s="5">
-        <v>37.539299999999997</v>
-      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="6">
-        <v>34.961300000000001</v>
-      </c>
+      <c r="X29" s="6"/>
       <c r="Y29" s="32"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2832,65 +2662,29 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
-        <v>12.82</v>
-      </c>
-      <c r="C30" s="3">
-        <v>12.68</v>
-      </c>
-      <c r="D30" s="3">
-        <v>12.82</v>
-      </c>
-      <c r="E30" s="3">
-        <v>13.24</v>
-      </c>
-      <c r="F30" s="3">
-        <v>13.17</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="38">
-        <v>12.123699999999999</v>
-      </c>
+      <c r="H30" s="38"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="2">
-        <v>19.646899999999999</v>
-      </c>
-      <c r="K30" s="2">
-        <v>22.454899999999999</v>
-      </c>
-      <c r="L30" s="2">
-        <v>24.164899999999999</v>
-      </c>
-      <c r="M30" s="2">
-        <v>22.403199999999998</v>
-      </c>
-      <c r="N30" s="2">
-        <v>22.5335</v>
-      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="6">
-        <v>19.844899999999999</v>
-      </c>
+      <c r="P30" s="6"/>
       <c r="Q30" s="31"/>
-      <c r="R30" s="5">
-        <v>32.524700000000003</v>
-      </c>
-      <c r="S30" s="5">
-        <v>36.761499999999998</v>
-      </c>
-      <c r="T30" s="5">
-        <v>37.239400000000003</v>
-      </c>
-      <c r="U30" s="5">
-        <v>38.037100000000002</v>
-      </c>
-      <c r="V30" s="5">
-        <v>35.399500000000003</v>
-      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="6">
-        <v>32.718200000000003</v>
-      </c>
+      <c r="X30" s="6"/>
       <c r="Y30" s="32"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -2917,65 +2711,29 @@
       <c r="A31" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>11.77</v>
-      </c>
-      <c r="C31" s="3">
-        <v>11.92</v>
-      </c>
-      <c r="D31" s="3">
-        <v>12.37</v>
-      </c>
-      <c r="E31" s="3">
-        <v>13.08</v>
-      </c>
-      <c r="F31" s="3">
-        <v>12.23</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="33">
-        <v>11.162100000000001</v>
-      </c>
+      <c r="H31" s="33"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="2">
-        <v>21.390599999999999</v>
-      </c>
-      <c r="K31" s="2">
-        <v>25.3353</v>
-      </c>
-      <c r="L31" s="2">
-        <v>25.1663</v>
-      </c>
-      <c r="M31" s="2">
-        <v>24.869499999999999</v>
-      </c>
-      <c r="N31" s="2">
-        <v>23.506599999999999</v>
-      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="6">
-        <v>21.0106</v>
-      </c>
+      <c r="P31" s="6"/>
       <c r="Q31" s="31"/>
-      <c r="R31" s="5">
-        <v>34.984900000000003</v>
-      </c>
-      <c r="S31" s="5">
-        <v>42.4313</v>
-      </c>
-      <c r="T31" s="5">
-        <v>43.373699999999999</v>
-      </c>
-      <c r="U31" s="5">
-        <v>43.255400000000002</v>
-      </c>
-      <c r="V31" s="5">
-        <v>42.681899999999999</v>
-      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="6">
-        <v>37.010399999999997</v>
-      </c>
+      <c r="X31" s="6"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -3001,65 +2759,29 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="C32" s="3">
-        <v>19.87</v>
-      </c>
-      <c r="D32" s="3">
-        <v>20.219899999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>20.379899999999999</v>
-      </c>
-      <c r="F32" s="3">
-        <v>19.91</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="33">
-        <v>19.559200000000001</v>
-      </c>
+      <c r="H32" s="33"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="2">
-        <v>33.178100000000001</v>
-      </c>
-      <c r="K32" s="2">
-        <v>31.084900000000001</v>
-      </c>
-      <c r="L32" s="2">
-        <v>32.513199999999998</v>
-      </c>
-      <c r="M32" s="2">
-        <v>32.077800000000003</v>
-      </c>
-      <c r="N32" s="2">
-        <v>31.6006</v>
-      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="6">
-        <v>31.0657</v>
-      </c>
+      <c r="P32" s="6"/>
       <c r="Q32" s="31"/>
-      <c r="R32" s="5">
-        <v>49.518300000000004</v>
-      </c>
-      <c r="S32" s="5">
-        <v>51.7012</v>
-      </c>
-      <c r="T32" s="5">
-        <v>52.819000000000003</v>
-      </c>
-      <c r="U32" s="5">
-        <v>48.501399999999997</v>
-      </c>
-      <c r="V32" s="5">
-        <v>48.700899999999997</v>
-      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="6">
-        <v>47.613999999999997</v>
-      </c>
+      <c r="X32" s="6"/>
       <c r="Y32" s="32"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -3086,65 +2808,29 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
-        <v>11.13</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10.82</v>
-      </c>
-      <c r="D33" s="3">
-        <v>11.24</v>
-      </c>
-      <c r="E33" s="3">
-        <v>10.65</v>
-      </c>
-      <c r="F33" s="3">
-        <v>10.46</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="33">
-        <v>10.4177</v>
-      </c>
+      <c r="H33" s="33"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="2">
-        <v>17.078600000000002</v>
-      </c>
-      <c r="K33" s="2">
-        <v>16.301600000000001</v>
-      </c>
-      <c r="L33" s="2">
-        <v>17.3843</v>
-      </c>
-      <c r="M33" s="2">
-        <v>16.598700000000001</v>
-      </c>
-      <c r="N33" s="2">
-        <v>16.867000000000001</v>
-      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="6">
-        <v>16.088699999999999</v>
-      </c>
+      <c r="P33" s="6"/>
       <c r="Q33" s="31"/>
-      <c r="R33" s="5">
-        <v>25.221</v>
-      </c>
-      <c r="S33" s="5">
-        <v>24.633299999999998</v>
-      </c>
-      <c r="T33" s="5">
-        <v>25.818899999999999</v>
-      </c>
-      <c r="U33" s="5">
-        <v>25.512799999999999</v>
-      </c>
-      <c r="V33" s="5">
-        <v>27.572199999999999</v>
-      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="6">
-        <v>23.8932</v>
-      </c>
+      <c r="X33" s="6"/>
       <c r="Y33" s="32"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -3171,65 +2857,29 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>14.61</v>
-      </c>
-      <c r="D34" s="3">
-        <v>15.59</v>
-      </c>
-      <c r="E34" s="3">
-        <v>15.08</v>
-      </c>
-      <c r="F34" s="3">
-        <v>13.14</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="33">
-        <v>12.562799999999999</v>
-      </c>
+      <c r="H34" s="33"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="2">
-        <v>25.111599999999999</v>
-      </c>
-      <c r="K34" s="2">
-        <v>27.5105</v>
-      </c>
-      <c r="L34" s="2">
-        <v>29.375699999999998</v>
-      </c>
-      <c r="M34" s="2">
-        <v>28.63</v>
-      </c>
-      <c r="N34" s="2">
-        <v>25.489100000000001</v>
-      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="6">
-        <v>24.7836</v>
-      </c>
+      <c r="P34" s="6"/>
       <c r="Q34" s="31"/>
-      <c r="R34" s="5">
-        <v>46.264800000000001</v>
-      </c>
-      <c r="S34" s="5">
-        <v>46.610999999999997</v>
-      </c>
-      <c r="T34" s="5">
-        <v>46.446100000000001</v>
-      </c>
-      <c r="U34" s="5">
-        <v>47.366399999999999</v>
-      </c>
-      <c r="V34" s="5">
-        <v>47.5702</v>
-      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="6">
-        <v>44.7881</v>
-      </c>
+      <c r="X34" s="6"/>
       <c r="Y34" s="32"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -3305,65 +2955,29 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
-        <v>10.25</v>
-      </c>
-      <c r="C36" s="3">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="D36" s="3">
-        <v>9.65</v>
-      </c>
-      <c r="E36" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="F36" s="3">
-        <v>9.84</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="33">
-        <v>8.9</v>
-      </c>
+      <c r="H36" s="33"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="2">
-        <v>18.4315</v>
-      </c>
-      <c r="K36" s="2">
-        <v>18.982500000000002</v>
-      </c>
-      <c r="L36" s="2">
-        <v>19.224699999999999</v>
-      </c>
-      <c r="M36" s="2">
-        <v>18.435700000000001</v>
-      </c>
-      <c r="N36" s="2">
-        <v>16.4544</v>
-      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="6">
-        <v>16.355799999999999</v>
-      </c>
+      <c r="P36" s="6"/>
       <c r="Q36" s="31"/>
-      <c r="R36" s="5">
-        <v>30.546099999999999</v>
-      </c>
-      <c r="S36" s="5">
-        <v>31.8232</v>
-      </c>
-      <c r="T36" s="5">
-        <v>30.659600000000001</v>
-      </c>
-      <c r="U36" s="5">
-        <v>30.768799999999999</v>
-      </c>
-      <c r="V36" s="5">
-        <v>29.737100000000002</v>
-      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="6">
-        <v>28.849799999999998</v>
-      </c>
+      <c r="X36" s="6"/>
       <c r="Y36" s="32"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -3390,64 +3004,28 @@
       <c r="A37" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3">
-        <v>8.02</v>
-      </c>
-      <c r="C37" s="3">
-        <v>7.98</v>
-      </c>
-      <c r="D37" s="3">
-        <v>8.51</v>
-      </c>
-      <c r="E37" s="3">
-        <v>8.14</v>
-      </c>
-      <c r="F37" s="3">
-        <v>8.07</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="33">
-        <v>7.8539000000000003</v>
-      </c>
+      <c r="H37" s="33"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="2">
-        <v>13.8657</v>
-      </c>
-      <c r="K37" s="2">
-        <v>13.7096</v>
-      </c>
-      <c r="L37" s="2">
-        <v>13.615500000000001</v>
-      </c>
-      <c r="M37" s="2">
-        <v>13.862500000000001</v>
-      </c>
-      <c r="N37" s="2">
-        <v>13.7752</v>
-      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="6">
-        <v>13.3405</v>
-      </c>
-      <c r="R37" s="5">
-        <v>20.654699999999998</v>
-      </c>
-      <c r="S37" s="5">
-        <v>21.027100000000001</v>
-      </c>
-      <c r="T37" s="5">
-        <v>21.242000000000001</v>
-      </c>
-      <c r="U37" s="5">
-        <v>21.025099999999998</v>
-      </c>
-      <c r="V37" s="5">
-        <v>20.483699999999999</v>
-      </c>
+      <c r="P37" s="6"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="6">
-        <v>20.144500000000001</v>
-      </c>
+      <c r="X37" s="6"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -3473,65 +3051,29 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3">
-        <v>10.36</v>
-      </c>
-      <c r="C38" s="3">
-        <v>11.15</v>
-      </c>
-      <c r="D38" s="3">
-        <v>11.88</v>
-      </c>
-      <c r="E38" s="3">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="F38" s="3">
-        <v>11.24</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="33">
-        <v>9.6365999999999996</v>
-      </c>
+      <c r="H38" s="33"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="2">
-        <v>15.5364</v>
-      </c>
-      <c r="K38" s="2">
-        <v>15.2796</v>
-      </c>
-      <c r="L38" s="2">
-        <v>16.401700000000002</v>
-      </c>
-      <c r="M38" s="2">
-        <v>14.914</v>
-      </c>
-      <c r="N38" s="2">
-        <v>15.230499999999999</v>
-      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="6">
-        <v>14.6053</v>
-      </c>
+      <c r="P38" s="6"/>
       <c r="Q38" s="31"/>
-      <c r="R38" s="5">
-        <v>24.766999999999999</v>
-      </c>
-      <c r="S38" s="5">
-        <v>25.831600000000002</v>
-      </c>
-      <c r="T38" s="5">
-        <v>24.762799999999999</v>
-      </c>
-      <c r="U38" s="5">
-        <v>27.285699999999999</v>
-      </c>
-      <c r="V38" s="5">
-        <v>26.687999999999999</v>
-      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="6">
-        <v>23.862300000000001</v>
-      </c>
+      <c r="X38" s="6"/>
       <c r="Y38" s="32"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -3558,64 +3100,28 @@
       <c r="A39" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>12.83</v>
-      </c>
-      <c r="D39" s="3">
-        <v>12.27</v>
-      </c>
-      <c r="E39" s="3">
-        <v>13.48</v>
-      </c>
-      <c r="F39" s="3">
-        <v>14.05</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="33">
-        <v>12.21</v>
-      </c>
+      <c r="H39" s="33"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="2">
-        <v>22.882000000000001</v>
-      </c>
-      <c r="K39" s="2">
-        <v>25.270800000000001</v>
-      </c>
-      <c r="L39" s="2">
-        <v>22.9924</v>
-      </c>
-      <c r="M39" s="2">
-        <v>22.759799999999998</v>
-      </c>
-      <c r="N39" s="2">
-        <v>22.9849</v>
-      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="6">
-        <v>21.985399999999998</v>
-      </c>
-      <c r="R39" s="5">
-        <v>43.270600000000002</v>
-      </c>
-      <c r="S39" s="5">
-        <v>39.927399999999999</v>
-      </c>
-      <c r="T39" s="5">
-        <v>42.9773</v>
-      </c>
-      <c r="U39" s="5">
-        <v>40.818100000000001</v>
-      </c>
-      <c r="V39" s="5">
-        <v>46.058300000000003</v>
-      </c>
+      <c r="P39" s="6"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="6">
-        <v>39.599400000000003</v>
-      </c>
+      <c r="X39" s="6"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -3641,65 +3147,29 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="3">
-        <v>9.49</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10.72</v>
-      </c>
-      <c r="D40" s="3">
-        <v>11.12</v>
-      </c>
-      <c r="E40" s="3">
-        <v>10.39</v>
-      </c>
-      <c r="F40" s="3">
-        <v>10.92</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="33">
-        <v>9.3773</v>
-      </c>
+      <c r="H40" s="33"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="2">
-        <v>16.559799999999999</v>
-      </c>
-      <c r="K40" s="2">
-        <v>19.3338</v>
-      </c>
-      <c r="L40" s="2">
-        <v>18.196899999999999</v>
-      </c>
-      <c r="M40" s="2">
-        <v>16.717700000000001</v>
-      </c>
-      <c r="N40" s="2">
-        <v>18.7011</v>
-      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="6">
-        <v>16.084099999999999</v>
-      </c>
+      <c r="P40" s="6"/>
       <c r="Q40" s="31"/>
-      <c r="R40" s="5">
-        <v>25.631499999999999</v>
-      </c>
-      <c r="S40" s="5">
-        <v>35.986400000000003</v>
-      </c>
-      <c r="T40" s="5">
-        <v>35.799700000000001</v>
-      </c>
-      <c r="U40" s="5">
-        <v>33.050600000000003</v>
-      </c>
-      <c r="V40" s="5">
-        <v>35.479199999999999</v>
-      </c>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="6">
-        <v>27.392600000000002</v>
-      </c>
+      <c r="X40" s="6"/>
       <c r="Y40" s="32"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -3775,64 +3245,28 @@
       <c r="A42" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3">
-        <v>10.35</v>
-      </c>
-      <c r="C42" s="3">
-        <v>11.26</v>
-      </c>
-      <c r="D42" s="3">
-        <v>11.83</v>
-      </c>
-      <c r="E42" s="3">
-        <v>11.56</v>
-      </c>
-      <c r="F42" s="3">
-        <v>11.22</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="33">
-        <v>10.099</v>
-      </c>
+      <c r="H42" s="33"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="2">
-        <v>20.644500000000001</v>
-      </c>
-      <c r="K42" s="2">
-        <v>22.084099999999999</v>
-      </c>
-      <c r="L42" s="2">
-        <v>19.252800000000001</v>
-      </c>
-      <c r="M42" s="2">
-        <v>20.474599999999999</v>
-      </c>
-      <c r="N42" s="2">
-        <v>23.0215</v>
-      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="6">
-        <v>18.628599999999999</v>
-      </c>
-      <c r="R42" s="5">
-        <v>31.3141</v>
-      </c>
-      <c r="S42" s="5">
-        <v>36.023299999999999</v>
-      </c>
-      <c r="T42" s="5">
-        <v>35.1004</v>
-      </c>
-      <c r="U42" s="5">
-        <v>36.833399999999997</v>
-      </c>
-      <c r="V42" s="5">
-        <v>33.423000000000002</v>
-      </c>
+      <c r="P42" s="6"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="6">
-        <v>30.346</v>
-      </c>
+      <c r="X42" s="6"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -3903,65 +3337,29 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
-        <v>9.64</v>
-      </c>
-      <c r="C44" s="3">
-        <v>9.32</v>
-      </c>
-      <c r="D44" s="3">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E44" s="3">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="F44" s="3">
-        <v>9.31</v>
-      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="33">
-        <v>8.9878</v>
-      </c>
+      <c r="H44" s="33"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="2">
-        <v>16.103899999999999</v>
-      </c>
-      <c r="K44" s="2">
-        <v>15.858700000000001</v>
-      </c>
-      <c r="L44" s="2">
-        <v>15.8514</v>
-      </c>
-      <c r="M44" s="2">
-        <v>15.333299999999999</v>
-      </c>
-      <c r="N44" s="2">
-        <v>17.4419</v>
-      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="6">
-        <v>15.1424</v>
-      </c>
+      <c r="P44" s="6"/>
       <c r="Q44" s="31"/>
-      <c r="R44" s="5">
-        <v>25.587</v>
-      </c>
-      <c r="S44" s="5">
-        <v>25.476199999999999</v>
-      </c>
-      <c r="T44" s="5">
-        <v>24.3551</v>
-      </c>
-      <c r="U44" s="5">
-        <v>22.9908</v>
-      </c>
-      <c r="V44" s="5">
-        <v>24.884599999999999</v>
-      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="6">
-        <v>23.356000000000002</v>
-      </c>
+      <c r="X44" s="6"/>
       <c r="Y44" s="32"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -4034,23 +3432,23 @@
         <v>42</v>
       </c>
       <c r="B46" s="3">
-        <v>8.9700000000000006</v>
+        <v>8.9709000000000003</v>
       </c>
       <c r="C46" s="3">
-        <v>9</v>
+        <v>8.9993999999999996</v>
       </c>
       <c r="D46" s="3">
-        <v>8.4499999999999993</v>
+        <v>8.4495000000000005</v>
       </c>
       <c r="E46" s="3">
-        <v>9.15</v>
+        <v>9.1477000000000004</v>
       </c>
       <c r="F46" s="3">
-        <v>8.59</v>
+        <v>8.5870999999999995</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="33">
-        <v>8.3840000000000003</v>
+        <v>8.4185999999999996</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="2">
@@ -4070,7 +3468,7 @@
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="6">
-        <v>15.174799999999999</v>
+        <v>15.656499999999999</v>
       </c>
       <c r="Q46" s="31"/>
       <c r="R46" s="5">
@@ -4090,7 +3488,7 @@
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="6">
-        <v>25.741599999999998</v>
+        <v>27.3628</v>
       </c>
       <c r="Y46" s="32"/>
       <c r="AA46" s="3"/>
@@ -4168,65 +3566,71 @@
         <v>44</v>
       </c>
       <c r="B48" s="3">
-        <v>9.1300000000000008</v>
+        <v>8.9936000000000007</v>
       </c>
       <c r="C48" s="3">
-        <v>9.15</v>
+        <v>10.397500000000001</v>
       </c>
       <c r="D48" s="3">
-        <v>10.87</v>
+        <v>10.0692</v>
       </c>
       <c r="E48" s="3">
-        <v>9.99</v>
+        <v>11.623699999999999</v>
       </c>
       <c r="F48" s="3">
-        <v>9.17</v>
+        <v>9.2015999999999991</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="33">
-        <v>9.0594000000000001</v>
-      </c>
-      <c r="I48" s="6"/>
+        <v>9.4356000000000009</v>
+      </c>
+      <c r="I48" s="6">
+        <v>12.6122</v>
+      </c>
       <c r="J48" s="2">
-        <v>15.247400000000001</v>
+        <v>15.174099999999999</v>
       </c>
       <c r="K48" s="2">
-        <v>15.0076</v>
+        <v>16.7729</v>
       </c>
       <c r="L48" s="2">
-        <v>18.682600000000001</v>
+        <v>15.4397</v>
       </c>
       <c r="M48" s="2">
-        <v>18.0425</v>
+        <v>16.376799999999999</v>
       </c>
       <c r="N48" s="2">
-        <v>14.5433</v>
+        <v>15.8619</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="6">
-        <v>14.6266</v>
-      </c>
-      <c r="Q48" s="31"/>
+        <v>15.426299999999999</v>
+      </c>
+      <c r="Q48" s="31">
+        <v>20.469899999999999</v>
+      </c>
       <c r="R48" s="5">
-        <v>26.796099999999999</v>
+        <v>27.135100000000001</v>
       </c>
       <c r="S48" s="5">
-        <v>26.471499999999999</v>
+        <v>27.7164</v>
       </c>
       <c r="T48" s="5">
-        <v>25.453600000000002</v>
+        <v>25.697700000000001</v>
       </c>
       <c r="U48" s="5">
-        <v>28.4057</v>
+        <v>27.463799999999999</v>
       </c>
       <c r="V48" s="5">
-        <v>25.047999999999998</v>
+        <v>25.4514</v>
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="6">
-        <v>24.535799999999998</v>
-      </c>
-      <c r="Y48" s="32"/>
+        <v>25.482600000000001</v>
+      </c>
+      <c r="Y48" s="32">
+        <v>31.893999999999998</v>
+      </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
@@ -4400,65 +3804,71 @@
         <v>48</v>
       </c>
       <c r="B52" s="3">
-        <v>8.6</v>
+        <v>8.4703999999999997</v>
       </c>
       <c r="C52" s="3">
-        <v>9.59</v>
+        <v>9.8940000000000001</v>
       </c>
       <c r="D52" s="3">
-        <v>9.33</v>
+        <v>9.7883999999999993</v>
       </c>
       <c r="E52" s="3">
-        <v>11.48</v>
+        <v>9.9560999999999993</v>
       </c>
       <c r="F52" s="3">
-        <v>10.58</v>
+        <v>8.6571999999999996</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="33">
-        <v>8.4696999999999996</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>8.9375</v>
+      </c>
+      <c r="I52" s="6">
+        <v>11.994999999999999</v>
+      </c>
       <c r="J52" s="2">
-        <v>16.773099999999999</v>
+        <v>16.907900000000001</v>
       </c>
       <c r="K52" s="2">
-        <v>16.7822</v>
+        <v>17.940300000000001</v>
       </c>
       <c r="L52" s="2">
-        <v>16.8002</v>
+        <v>17.491099999999999</v>
       </c>
       <c r="M52" s="2">
-        <v>16.399100000000001</v>
+        <v>16.633099999999999</v>
       </c>
       <c r="N52" s="2">
-        <v>17.195699999999999</v>
+        <v>16.4315</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="6">
-        <v>16.079000000000001</v>
-      </c>
-      <c r="Q52" s="31"/>
+        <v>16.4102</v>
+      </c>
+      <c r="Q52" s="31">
+        <v>19.8508</v>
+      </c>
       <c r="R52" s="5">
-        <v>27.0031</v>
+        <v>26.9527</v>
       </c>
       <c r="S52" s="5">
-        <v>28.2804</v>
+        <v>27.0929</v>
       </c>
       <c r="T52" s="5">
-        <v>28.0154</v>
+        <v>26.891400000000001</v>
       </c>
       <c r="U52" s="5">
-        <v>28.024000000000001</v>
+        <v>27.651599999999998</v>
       </c>
       <c r="V52" s="5">
-        <v>26.968399999999999</v>
+        <v>26.566700000000001</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="6">
-        <v>26.030200000000001</v>
-      </c>
-      <c r="Y52" s="32"/>
+        <v>26.119800000000001</v>
+      </c>
+      <c r="Y52" s="32">
+        <v>32.333199999999998</v>
+      </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
@@ -4503,7 +3913,9 @@
       <c r="H53" s="33">
         <v>12.311</v>
       </c>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6">
+        <v>16.230599999999999</v>
+      </c>
       <c r="J53" s="2">
         <v>24.862400000000001</v>
       </c>
@@ -4523,7 +3935,9 @@
       <c r="P53" s="6">
         <v>26.153400000000001</v>
       </c>
-      <c r="Q53" s="31"/>
+      <c r="Q53" s="31">
+        <v>25.897500000000001</v>
+      </c>
       <c r="R53" s="5">
         <v>36.9876</v>
       </c>
@@ -4543,8 +3957,8 @@
       <c r="X53" s="6">
         <v>36.657699999999998</v>
       </c>
-      <c r="Y53" s="32" t="s">
-        <v>88</v>
+      <c r="Y53" s="32">
+        <v>38.925199999999997</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -4590,7 +4004,9 @@
       <c r="H54" s="33">
         <v>14.4123</v>
       </c>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6">
+        <v>18.7165</v>
+      </c>
       <c r="J54" s="2">
         <v>22.918199999999999</v>
       </c>
@@ -4610,7 +4026,9 @@
       <c r="P54" s="6">
         <v>23.0367</v>
       </c>
-      <c r="Q54" s="31"/>
+      <c r="Q54" s="31">
+        <v>29.663799999999998</v>
+      </c>
       <c r="R54" s="5">
         <v>37.8247</v>
       </c>
@@ -4630,8 +4048,8 @@
       <c r="X54" s="6">
         <v>36.153500000000001</v>
       </c>
-      <c r="Y54" s="32" t="s">
-        <v>87</v>
+      <c r="Y54" s="32">
+        <v>43.687600000000003</v>
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -4740,23 +4158,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.50971</v>
+        <v>12.174199999999999</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.832423333333331</v>
+        <v>12.56485</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.958563333333332</v>
+        <v>12.572575000000001</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.228203333333335</v>
+        <v>13.221625000000001</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.578003333333333</v>
+        <v>12.144033333333333</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4764,31 +4182,31 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>11.01028</v>
-      </c>
-      <c r="I58" s="4" t="e">
+        <v>12.050391666666664</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
-        <v>#DIV/0!</v>
+        <v>15.237470000000002</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.524076666666666</v>
+        <v>20.877000000000006</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.660283333333332</v>
+        <v>22.790175000000001</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.498063333333327</v>
+        <v>22.808633333333333</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>20.17548</v>
+        <v>21.214766666666666</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.15053</v>
+        <v>21.537066666666664</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4796,31 +4214,31 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.952293333333333</v>
-      </c>
-      <c r="Q58" s="4" t="e">
+        <v>20.941783333333333</v>
+      </c>
+      <c r="Q58" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>23.85886</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.473126666666676</v>
+        <v>32.967466666666667</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.891890000000004</v>
+        <v>35.040299999999995</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.672743333333329</v>
+        <v>33.7014</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.993986666666657</v>
+        <v>34.349958333333326</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.757837000000002</v>
+        <v>34.61869166666667</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4828,11 +4246,11 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>30.778453333333335</v>
-      </c>
-      <c r="Y58" s="4" t="e">
+        <v>33.491783333333331</v>
+      </c>
+      <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>36.057090000000002</v>
       </c>
     </row>
     <row r="59" spans="1:46">
@@ -4859,6 +4277,236 @@
       <c r="Y59" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="33"/>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A68" s="33"/>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="40"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="38"/>
+      <c r="B70" s="6"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="33"/>
+      <c r="B73" s="6"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="33"/>
+      <c r="B74" s="6"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="33"/>
+      <c r="B75" s="6"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="31"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="31"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+    </row>
+    <row r="80" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="31"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="31"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="31"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="31"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="31"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="31"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="31"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="20"/>
+      <c r="B88" s="36"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="32"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13"/>
+      <c r="B90" s="32"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="32"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="32"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="32"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="32"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="32"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>1_Sam</t>
   </si>
@@ -312,6 +312,48 @@
   <si>
     <t>GA</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-검정: 등분산 가정 두 집단</t>
+  </si>
+  <si>
+    <t>변수 1</t>
+  </si>
+  <si>
+    <t>변수 2</t>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>분산</t>
+  </si>
+  <si>
+    <t>관측수</t>
+  </si>
+  <si>
+    <t>공동(Pooled) 분산</t>
+  </si>
+  <si>
+    <t>가설 평균차</t>
+  </si>
+  <si>
+    <t>자유도</t>
+  </si>
+  <si>
+    <t>t 통계량</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 단측 검정</t>
+  </si>
+  <si>
+    <t>t 기각치 단측 검정</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 양측 검정</t>
+  </si>
+  <si>
+    <t>t 기각치 양측 검정</t>
   </si>
 </sst>
 </file>
@@ -686,7 +728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -721,7 +763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -906,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU97"/>
+  <dimension ref="A1:AU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2063,7 +2105,9 @@
       <c r="H18" s="33">
         <v>16.991900000000001</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>25.281400000000001</v>
+      </c>
       <c r="J18" s="2">
         <v>29.721699999999998</v>
       </c>
@@ -2083,7 +2127,9 @@
       <c r="P18" s="6">
         <v>27.374500000000001</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="31">
+        <v>40.021099999999997</v>
+      </c>
       <c r="R18" s="5">
         <v>47.153199999999998</v>
       </c>
@@ -2103,7 +2149,9 @@
       <c r="X18" s="6">
         <v>44.767499999999998</v>
       </c>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="32">
+        <v>60.894199999999998</v>
+      </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -2272,29 +2320,65 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="3">
+        <v>8.1527999999999992</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.9865000000000004</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.7310999999999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7.5617000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8.0663</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="38"/>
+      <c r="H22" s="38">
+        <v>7.7135999999999996</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="J22" s="2">
+        <v>13.824299999999999</v>
+      </c>
+      <c r="K22" s="2">
+        <v>13.6495</v>
+      </c>
+      <c r="L22" s="2">
+        <v>13.3354</v>
+      </c>
+      <c r="M22" s="2">
+        <v>13.490399999999999</v>
+      </c>
+      <c r="N22" s="2">
+        <v>14.722200000000001</v>
+      </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>13.377000000000001</v>
+      </c>
       <c r="Q22" s="31"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="R22" s="5">
+        <v>21.717400000000001</v>
+      </c>
+      <c r="S22" s="5">
+        <v>21.211500000000001</v>
+      </c>
+      <c r="T22" s="5">
+        <v>21.283799999999999</v>
+      </c>
+      <c r="U22" s="5">
+        <v>21.631599999999999</v>
+      </c>
+      <c r="V22" s="5">
+        <v>21.537199999999999</v>
+      </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="6"/>
+      <c r="X22" s="6">
+        <v>21.1509</v>
+      </c>
       <c r="Y22" s="32"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -3337,29 +3421,65 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="3">
+        <v>9.6669</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10.756399999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9.0204000000000004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9.2007999999999992</v>
+      </c>
+      <c r="F44" s="3">
+        <v>9.3592999999999993</v>
+      </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="33">
+        <v>9.0126000000000008</v>
+      </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="J44" s="2">
+        <v>16.074300000000001</v>
+      </c>
+      <c r="K44" s="2">
+        <v>15.8475</v>
+      </c>
+      <c r="L44" s="2">
+        <v>15.755100000000001</v>
+      </c>
+      <c r="M44" s="2">
+        <v>15.682499999999999</v>
+      </c>
+      <c r="N44" s="2">
+        <v>15.737299999999999</v>
+      </c>
       <c r="O44" s="9"/>
-      <c r="P44" s="6"/>
+      <c r="P44" s="6">
+        <v>15.1532</v>
+      </c>
       <c r="Q44" s="31"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
+      <c r="R44" s="5">
+        <v>26.483000000000001</v>
+      </c>
+      <c r="S44" s="5">
+        <v>23.819099999999999</v>
+      </c>
+      <c r="T44" s="5">
+        <v>23.1069</v>
+      </c>
+      <c r="U44" s="5">
+        <v>23.585100000000001</v>
+      </c>
+      <c r="V44" s="5">
+        <v>24.807500000000001</v>
+      </c>
       <c r="W44" s="1"/>
-      <c r="X44" s="6"/>
+      <c r="X44" s="6">
+        <v>23.098400000000002</v>
+      </c>
       <c r="Y44" s="32"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -3450,7 +3570,9 @@
       <c r="H46" s="33">
         <v>8.4185999999999996</v>
       </c>
-      <c r="I46" s="6"/>
+      <c r="I46" s="6">
+        <v>11.873100000000001</v>
+      </c>
       <c r="J46" s="2">
         <v>16.016999999999999</v>
       </c>
@@ -3470,7 +3592,9 @@
       <c r="P46" s="6">
         <v>15.656499999999999</v>
       </c>
-      <c r="Q46" s="31"/>
+      <c r="Q46" s="31">
+        <v>19.7621</v>
+      </c>
       <c r="R46" s="5">
         <v>25.9923</v>
       </c>
@@ -3490,7 +3614,9 @@
       <c r="X46" s="6">
         <v>27.3628</v>
       </c>
-      <c r="Y46" s="32"/>
+      <c r="Y46" s="32">
+        <v>33.166200000000003</v>
+      </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
@@ -4158,23 +4284,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>12.174199999999999</v>
+        <v>11.707864285714285</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>12.56485</v>
+        <v>12.108649999999999</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>12.572575000000001</v>
+        <v>11.973028571428571</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>13.221625000000001</v>
+        <v>12.530142857142858</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>12.144033333333333</v>
+        <v>11.65385714285714</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4182,31 +4308,31 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>12.050391666666664</v>
+        <v>11.523635714285714</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
-        <v>15.237470000000002</v>
+        <v>15.794100000000002</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>20.877000000000006</v>
+        <v>20.030185714285718</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>22.790175000000001</v>
+        <v>21.641364285714282</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>22.808633333333333</v>
+        <v>21.628149999999998</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>21.214766666666666</v>
+        <v>20.267864285714289</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>21.537066666666664</v>
+        <v>20.636021428571429</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4214,31 +4340,31 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>20.941783333333333</v>
+        <v>19.987971428571427</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
-        <v>23.85886</v>
+        <v>24.864316666666664</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>32.967466666666667</v>
+        <v>31.700714285714287</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>35.040299999999995</v>
+        <v>33.251014285714284</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>33.7014</v>
+        <v>32.057678571428568</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>34.349958333333326</v>
+        <v>32.672585714285709</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>34.61869166666667</v>
+        <v>32.983499999999999</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4246,11 +4372,11 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>33.491783333333331</v>
+        <v>31.867907142857142</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>36.057090000000002</v>
+        <v>37.885941666666668</v>
       </c>
     </row>
     <row r="59" spans="1:46">
@@ -4278,149 +4404,392 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="1"/>
+    <row r="63" spans="1:46">
+      <c r="A63" s="28">
+        <v>11.241199999999999</v>
+      </c>
+      <c r="B63" s="1">
+        <v>16.9072</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46">
+      <c r="A64" s="29"/>
+      <c r="B64" s="24"/>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A65" s="29"/>
+      <c r="B65" s="24"/>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="37"/>
+      <c r="D67" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="42">
+        <v>12.050391666666664</v>
+      </c>
+      <c r="F67" s="42">
+        <v>15.794100000000002</v>
+      </c>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="O67" s="44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A68" s="33"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="6"/>
+      <c r="D68" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="42">
+        <v>12.359843048106107</v>
+      </c>
+      <c r="F68" s="42">
+        <v>21.168139756363541</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="42">
+        <v>20.941783333333333</v>
+      </c>
+      <c r="K68" s="42">
+        <v>24.864316666666664</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" s="42">
+        <v>37.885941666666668</v>
+      </c>
+      <c r="O68" s="42">
+        <v>33.491783333333331</v>
+      </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="40"/>
-      <c r="B69" s="6"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="22"/>
+      <c r="D69" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="42">
+        <v>12</v>
+      </c>
+      <c r="F69" s="42">
+        <v>12</v>
+      </c>
       <c r="G69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
+      <c r="I69" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="42">
+        <v>28.135009628787884</v>
+      </c>
+      <c r="K69" s="42">
+        <v>45.093368903333612</v>
+      </c>
+      <c r="M69" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="N69" s="42">
+        <v>83.778982042651478</v>
+      </c>
+      <c r="O69" s="42">
+        <v>65.284341339697093</v>
+      </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="38"/>
-      <c r="B70" s="6"/>
-      <c r="E70" s="42"/>
+      <c r="A70" s="33">
+        <v>15.868399999999999</v>
+      </c>
+      <c r="B70" s="6">
+        <v>18.741800000000001</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="42">
+        <v>16.763991402234822</v>
+      </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
+      <c r="I70" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="42">
+        <v>12</v>
+      </c>
+      <c r="K70" s="42">
+        <v>12</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="N70" s="42">
+        <v>12</v>
+      </c>
+      <c r="O70" s="42">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="6"/>
-      <c r="E71" s="42"/>
+      <c r="A71" s="33">
+        <v>9.5009999999999994</v>
+      </c>
+      <c r="B71" s="6">
+        <v>13.225199999999999</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="42">
+        <v>0</v>
+      </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
+      <c r="I71" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="42">
+        <v>36.614189266060748</v>
+      </c>
       <c r="K71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
+      <c r="M71" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="42">
+        <v>74.531661691174293</v>
+      </c>
       <c r="O71" s="42"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="33"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="6"/>
-      <c r="E72" s="42"/>
+      <c r="D72" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="42">
+        <v>22</v>
+      </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
+      <c r="I72" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" s="42">
+        <v>0</v>
+      </c>
       <c r="K72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="M72" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" s="42">
+        <v>0</v>
+      </c>
       <c r="O72" s="42"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="33"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="6"/>
-      <c r="E73" s="42"/>
+      <c r="D73" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="42">
+        <v>-2.2396951865559527</v>
+      </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
+      <c r="I73" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J73" s="42">
+        <v>22</v>
+      </c>
       <c r="K73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="M73" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="N73" s="42">
+        <v>22</v>
+      </c>
       <c r="O73" s="42"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="33"/>
-      <c r="B74" s="6"/>
-      <c r="E74" s="42"/>
+      <c r="A74" s="40">
+        <v>10.547499999999999</v>
+      </c>
+      <c r="B74" s="6">
+        <v>11.865500000000001</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="42">
+        <v>1.7770942485252461E-2</v>
+      </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
+      <c r="I74" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" s="42">
+        <v>-1.5878795552264446</v>
+      </c>
       <c r="K74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="M74" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N74" s="42">
+        <v>1.2467544438558449</v>
+      </c>
       <c r="O74" s="42"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="33"/>
-      <c r="B75" s="6"/>
-      <c r="E75" s="42"/>
+      <c r="A75" s="38">
+        <v>8.5629000000000008</v>
+      </c>
+      <c r="B75" s="6">
+        <v>10.468299999999999</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="42">
+        <v>1.7171443743802424</v>
+      </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
+      <c r="I75" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75" s="42">
+        <v>6.3291505851298224E-2</v>
+      </c>
       <c r="K75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="M75" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N75" s="42">
+        <v>0.11279944198539466</v>
+      </c>
       <c r="O75" s="42"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="E76" s="42"/>
+      <c r="A76" s="33">
+        <v>18.376799999999999</v>
+      </c>
+      <c r="B76" s="6">
+        <v>21.612400000000001</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="42">
+        <v>3.5541884970504922E-2</v>
+      </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
+      <c r="I76" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" s="42">
+        <v>1.7171443743802424</v>
+      </c>
       <c r="K76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
+      <c r="M76" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N76" s="42">
+        <v>1.7171443743802424</v>
+      </c>
       <c r="O76" s="42"/>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
+    <row r="77" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A77" s="33">
+        <v>16.991900000000001</v>
+      </c>
+      <c r="B77" s="6">
+        <v>25.281400000000001</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="43">
+        <v>2.0738730679040258</v>
+      </c>
+      <c r="F77" s="43"/>
       <c r="G77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="I77" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" s="42">
+        <v>0.12658301170259645</v>
+      </c>
       <c r="K77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
+      <c r="M77" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="N77" s="42">
+        <v>0.22559888397078931</v>
+      </c>
       <c r="O77" s="42"/>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="6"/>
-      <c r="B78" s="31"/>
+    <row r="78" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="6"/>
       <c r="E78" s="42"/>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
+      <c r="I78" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="43">
+        <v>2.0738730679040258</v>
+      </c>
+      <c r="K78" s="43"/>
+      <c r="M78" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="N78" s="43">
+        <v>2.0738730679040258</v>
+      </c>
+      <c r="O78" s="43"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="31"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="6"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -4432,8 +4801,8 @@
       <c r="O79" s="42"/>
     </row>
     <row r="80" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="6"/>
       <c r="E80" s="43"/>
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
@@ -4445,68 +4814,156 @@
       <c r="O80" s="43"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="31"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="31"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="38"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="32"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="33"/>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="33"/>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8"/>
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="33"/>
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8"/>
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="33">
+        <v>8.4185999999999996</v>
+      </c>
+      <c r="B105" s="6">
+        <v>11.873100000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="33"/>
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="33">
+        <v>9.4356000000000009</v>
+      </c>
+      <c r="B107" s="6">
+        <v>12.6122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="33"/>
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="33"/>
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="33"/>
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="33">
+        <v>8.9375</v>
+      </c>
+      <c r="B111" s="6">
+        <v>11.994999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="33">
+        <v>12.311</v>
+      </c>
+      <c r="B112" s="6">
+        <v>16.230599999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="33">
+        <v>14.4123</v>
+      </c>
+      <c r="B113" s="6">
+        <v>18.7165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2503,29 +2503,65 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="3">
+        <v>6.7331000000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.5838000000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.7728000000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7.0316999999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.5591999999999997</v>
+      </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="38">
+        <v>6.5789</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="J25" s="2">
+        <v>12.226800000000001</v>
+      </c>
+      <c r="K25" s="2">
+        <v>11.741400000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11.313599999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>12.3477</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12.5197</v>
+      </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="6"/>
+      <c r="P25" s="6">
+        <v>11.626799999999999</v>
+      </c>
       <c r="Q25" s="31"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="R25" s="5">
+        <v>20.426400000000001</v>
+      </c>
+      <c r="S25" s="5">
+        <v>20.0852</v>
+      </c>
+      <c r="T25" s="5">
+        <v>19.147500000000001</v>
+      </c>
+      <c r="U25" s="5">
+        <v>20.393899999999999</v>
+      </c>
+      <c r="V25" s="5">
+        <v>18.995000000000001</v>
+      </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="6"/>
+      <c r="X25" s="6">
+        <v>19.439399999999999</v>
+      </c>
       <c r="Y25" s="32"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2650,28 +2686,64 @@
       <c r="A28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="3">
+        <v>9.8785000000000007</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10.472</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10.082599999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10.0396</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9.8620999999999999</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="38"/>
+      <c r="H28" s="38">
+        <v>9.8078000000000003</v>
+      </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="J28" s="2">
+        <v>15.2005</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15.7233</v>
+      </c>
+      <c r="L28" s="2">
+        <v>15.401899999999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>15.0655</v>
+      </c>
+      <c r="N28" s="2">
+        <v>15.096399999999999</v>
+      </c>
       <c r="O28" s="9"/>
-      <c r="P28" s="6"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="P28" s="6">
+        <v>14.730600000000001</v>
+      </c>
+      <c r="R28" s="5">
+        <v>23.989799999999999</v>
+      </c>
+      <c r="S28" s="5">
+        <v>26.255700000000001</v>
+      </c>
+      <c r="T28" s="5">
+        <v>24.3643</v>
+      </c>
+      <c r="U28" s="5">
+        <v>23.488700000000001</v>
+      </c>
+      <c r="V28" s="5">
+        <v>23.5383</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="6"/>
+      <c r="X28" s="6">
+        <v>23.267199999999999</v>
+      </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2697,29 +2769,65 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="3">
+        <v>10.9725</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13.1975</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12.2522</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13.4901</v>
+      </c>
+      <c r="F29" s="3">
+        <v>11.1991</v>
+      </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="38"/>
+      <c r="H29" s="38">
+        <v>11.041700000000001</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="J29" s="2">
+        <v>21.837499999999999</v>
+      </c>
+      <c r="K29" s="2">
+        <v>21.4224</v>
+      </c>
+      <c r="L29" s="2">
+        <v>20.874099999999999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>20.641300000000001</v>
+      </c>
+      <c r="N29" s="2">
+        <v>19.796600000000002</v>
+      </c>
       <c r="O29" s="9"/>
-      <c r="P29" s="6"/>
+      <c r="P29" s="6">
+        <v>19.9984</v>
+      </c>
       <c r="Q29" s="31"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="R29" s="5">
+        <v>37.251800000000003</v>
+      </c>
+      <c r="S29" s="5">
+        <v>36.698999999999998</v>
+      </c>
+      <c r="T29" s="5">
+        <v>34.036200000000001</v>
+      </c>
+      <c r="U29" s="5">
+        <v>42.721299999999999</v>
+      </c>
+      <c r="V29" s="5">
+        <v>37.539299999999997</v>
+      </c>
       <c r="W29" s="1"/>
-      <c r="X29" s="6"/>
+      <c r="X29" s="6">
+        <v>38.5197</v>
+      </c>
       <c r="Y29" s="32"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2746,29 +2854,65 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3">
+        <v>12.8188</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12.6799</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12.824</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13.2408</v>
+      </c>
+      <c r="F30" s="3">
+        <v>13.165900000000001</v>
+      </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="38"/>
+      <c r="H30" s="38">
+        <v>12.252000000000001</v>
+      </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="J30" s="2">
+        <v>19.646899999999999</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22.438500000000001</v>
+      </c>
+      <c r="L30" s="2">
+        <v>24.164899999999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>22.3658</v>
+      </c>
+      <c r="N30" s="2">
+        <v>22.530799999999999</v>
+      </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="6"/>
+      <c r="P30" s="6">
+        <v>21.2882</v>
+      </c>
       <c r="Q30" s="31"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="5">
+        <v>32.524700000000003</v>
+      </c>
+      <c r="S30" s="5">
+        <v>36.700899999999997</v>
+      </c>
+      <c r="T30" s="5">
+        <v>37.1755</v>
+      </c>
+      <c r="U30" s="5">
+        <v>37.642000000000003</v>
+      </c>
+      <c r="V30" s="5">
+        <v>35.399500000000003</v>
+      </c>
       <c r="W30" s="1"/>
-      <c r="X30" s="6"/>
+      <c r="X30" s="6">
+        <v>35.664299999999997</v>
+      </c>
       <c r="Y30" s="32"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -3088,28 +3232,64 @@
       <c r="A37" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="3">
+        <v>8.0328999999999997</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8.0848999999999993</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8.5015999999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8.2491000000000003</v>
+      </c>
+      <c r="F37" s="3">
+        <v>7.9595000000000002</v>
+      </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="33"/>
+      <c r="H37" s="33">
+        <v>8.0765999999999991</v>
+      </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="J37" s="2">
+        <v>13.834899999999999</v>
+      </c>
+      <c r="K37" s="2">
+        <v>13.7181</v>
+      </c>
+      <c r="L37" s="2">
+        <v>14.946099999999999</v>
+      </c>
+      <c r="M37" s="2">
+        <v>14.0799</v>
+      </c>
+      <c r="N37" s="2">
+        <v>14.586399999999999</v>
+      </c>
       <c r="O37" s="9"/>
-      <c r="P37" s="6"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="P37" s="6">
+        <v>13.543900000000001</v>
+      </c>
+      <c r="R37" s="5">
+        <v>20.6008</v>
+      </c>
+      <c r="S37" s="5">
+        <v>20.7224</v>
+      </c>
+      <c r="T37" s="5">
+        <v>20.7867</v>
+      </c>
+      <c r="U37" s="5">
+        <v>20.728100000000001</v>
+      </c>
+      <c r="V37" s="5">
+        <v>20.475100000000001</v>
+      </c>
       <c r="W37" s="1"/>
-      <c r="X37" s="6"/>
+      <c r="X37" s="6">
+        <v>20.186800000000002</v>
+      </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -3135,29 +3315,65 @@
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3">
+        <v>10.322699999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>11.150399999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>9.6579999999999995</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10.6884</v>
+      </c>
+      <c r="F38" s="3">
+        <v>12.2486</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="33">
+        <v>10.3758</v>
+      </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="J38" s="2">
+        <v>15.6075</v>
+      </c>
+      <c r="K38" s="2">
+        <v>15.6464</v>
+      </c>
+      <c r="L38" s="2">
+        <v>15.994999999999999</v>
+      </c>
+      <c r="M38" s="2">
+        <v>15.469200000000001</v>
+      </c>
+      <c r="N38" s="2">
+        <v>16.042899999999999</v>
+      </c>
       <c r="O38" s="9"/>
-      <c r="P38" s="6"/>
+      <c r="P38" s="6">
+        <v>15.564500000000001</v>
+      </c>
       <c r="Q38" s="31"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="R38" s="5">
+        <v>24.303699999999999</v>
+      </c>
+      <c r="S38" s="5">
+        <v>27.3492</v>
+      </c>
+      <c r="T38" s="5">
+        <v>27.843599999999999</v>
+      </c>
+      <c r="U38" s="5">
+        <v>28.218299999999999</v>
+      </c>
+      <c r="V38" s="5">
+        <v>28.964400000000001</v>
+      </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="6"/>
+      <c r="X38" s="6">
+        <v>26.873799999999999</v>
+      </c>
       <c r="Y38" s="32"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -3184,28 +3400,64 @@
       <c r="A39" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="3">
+        <v>13.7082</v>
+      </c>
+      <c r="C39" s="3">
+        <v>13.393000000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>13.248200000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>14.2013</v>
+      </c>
+      <c r="F39" s="3">
+        <v>13.173</v>
+      </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="33"/>
+      <c r="H39" s="33">
+        <v>12.7438</v>
+      </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="J39" s="2">
+        <v>23.284500000000001</v>
+      </c>
+      <c r="K39" s="2">
+        <v>23.718800000000002</v>
+      </c>
+      <c r="L39" s="2">
+        <v>22.645299999999999</v>
+      </c>
+      <c r="M39" s="2">
+        <v>22.046900000000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>22.865200000000002</v>
+      </c>
       <c r="O39" s="9"/>
-      <c r="P39" s="6"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
+      <c r="P39" s="6">
+        <v>21.762599999999999</v>
+      </c>
+      <c r="R39" s="5">
+        <v>42.055399999999999</v>
+      </c>
+      <c r="S39" s="5">
+        <v>43.272100000000002</v>
+      </c>
+      <c r="T39" s="5">
+        <v>40.272300000000001</v>
+      </c>
+      <c r="U39" s="5">
+        <v>42.771599999999999</v>
+      </c>
+      <c r="V39" s="5">
+        <v>42.360700000000001</v>
+      </c>
       <c r="W39" s="1"/>
-      <c r="X39" s="6"/>
+      <c r="X39" s="6">
+        <v>40.288499999999999</v>
+      </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -3231,29 +3483,65 @@
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="3">
+        <v>9.5876999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>11.744300000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10.3713</v>
+      </c>
+      <c r="E40" s="3">
+        <v>9.5510000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10.392799999999999</v>
+      </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="33">
+        <v>9.6373999999999995</v>
+      </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="J40" s="2">
+        <v>16.395499999999998</v>
+      </c>
+      <c r="K40" s="2">
+        <v>19.271000000000001</v>
+      </c>
+      <c r="L40" s="2">
+        <v>19.6647</v>
+      </c>
+      <c r="M40" s="2">
+        <v>15.9734</v>
+      </c>
+      <c r="N40" s="2">
+        <v>20.254799999999999</v>
+      </c>
       <c r="O40" s="9"/>
-      <c r="P40" s="6"/>
+      <c r="P40" s="6">
+        <v>18.031400000000001</v>
+      </c>
       <c r="Q40" s="31"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="R40" s="5">
+        <v>25.477799999999998</v>
+      </c>
+      <c r="S40" s="5">
+        <v>29.817699999999999</v>
+      </c>
+      <c r="T40" s="5">
+        <v>35.592199999999998</v>
+      </c>
+      <c r="U40" s="5">
+        <v>28.0914</v>
+      </c>
+      <c r="V40" s="5">
+        <v>34.828899999999997</v>
+      </c>
       <c r="W40" s="1"/>
-      <c r="X40" s="6"/>
+      <c r="X40" s="6">
+        <v>30.352799999999998</v>
+      </c>
       <c r="Y40" s="32"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -3329,28 +3617,64 @@
       <c r="A42" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="3">
+        <v>10.96</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10.1685</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10.7775</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10.411300000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10.734</v>
+      </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="33"/>
+      <c r="H42" s="33">
+        <v>10.065200000000001</v>
+      </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="J42" s="2">
+        <v>21.092199999999998</v>
+      </c>
+      <c r="K42" s="2">
+        <v>20.424199999999999</v>
+      </c>
+      <c r="L42" s="2">
+        <v>19.802299999999999</v>
+      </c>
+      <c r="M42" s="2">
+        <v>20.200500000000002</v>
+      </c>
+      <c r="N42" s="2">
+        <v>19.923100000000002</v>
+      </c>
       <c r="O42" s="9"/>
-      <c r="P42" s="6"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="P42" s="6">
+        <v>18.689</v>
+      </c>
+      <c r="R42" s="5">
+        <v>31.7942</v>
+      </c>
+      <c r="S42" s="5">
+        <v>36.0428</v>
+      </c>
+      <c r="T42" s="5">
+        <v>33.933999999999997</v>
+      </c>
+      <c r="U42" s="5">
+        <v>36.196300000000001</v>
+      </c>
+      <c r="V42" s="5">
+        <v>33.619399999999999</v>
+      </c>
       <c r="W42" s="1"/>
-      <c r="X42" s="6"/>
+      <c r="X42" s="6">
+        <v>33.595599999999997</v>
+      </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -4284,23 +4608,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.707864285714285</v>
+        <v>11.170630434782609</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>12.108649999999999</v>
+        <v>11.608495652173914</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.973028571428571</v>
+        <v>11.396113043478261</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.530142857142858</v>
+        <v>11.840230434782608</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.65385714285714</v>
+        <v>11.236878260869561</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4308,7 +4632,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>11.523635714285714</v>
+        <v>10.95261304347826</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4316,23 +4640,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>20.030185714285718</v>
+        <v>19.110821739130433</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>21.641364285714282</v>
+        <v>20.307965217391306</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>21.628149999999998</v>
+        <v>20.330521739130436</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>20.267864285714289</v>
+        <v>19.214795652173915</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.636021428571429</v>
+        <v>19.674791304347824</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4340,7 +4664,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>19.987971428571427</v>
+        <v>18.915956521739133</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
@@ -4348,23 +4672,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.700714285714287</v>
+        <v>30.531939130434782</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>33.251014285714284</v>
+        <v>32.280834782608693</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.057678571428568</v>
+        <v>31.389556521739124</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.672585714285709</v>
+        <v>32.072513043478253</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.983499999999999</v>
+        <v>32.064765217391304</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4372,7 +4696,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>31.867907142857142</v>
+        <v>31.058208695652173</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>1_Sam</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>30_Sam</t>
-  </si>
-  <si>
-    <t>31_Sam</t>
   </si>
   <si>
     <t>32_Sam</t>
@@ -354,6 +351,10 @@
   </si>
   <si>
     <t>t 기각치 양측 검정</t>
+  </si>
+  <si>
+    <t>31_Sam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -950,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -964,79 +965,79 @@
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="Q1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="Z1" s="7"/>
       <c r="AF1" s="8"/>
@@ -2224,7 +2225,7 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2235,9 +2236,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="2"/>
       <c r="O20" s="8"/>
       <c r="P20" s="6"/>
@@ -2339,7 +2340,9 @@
       <c r="H22" s="38">
         <v>7.7135999999999996</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6">
+        <v>10.791</v>
+      </c>
       <c r="J22" s="2">
         <v>13.824299999999999</v>
       </c>
@@ -2359,7 +2362,9 @@
       <c r="P22" s="6">
         <v>13.377000000000001</v>
       </c>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="31">
+        <v>16.513200000000001</v>
+      </c>
       <c r="R22" s="5">
         <v>21.717400000000001</v>
       </c>
@@ -2379,7 +2384,9 @@
       <c r="X22" s="6">
         <v>21.1509</v>
       </c>
-      <c r="Y22" s="32"/>
+      <c r="Y22" s="32">
+        <v>25.103300000000001</v>
+      </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
@@ -2405,29 +2412,65 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="3">
+        <v>6.9987000000000004</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7.8544999999999998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.5355999999999996</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7.8226000000000004</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7.0210999999999997</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="38"/>
+      <c r="H23" s="38">
+        <v>6.9892000000000003</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="J23" s="2">
+        <v>11.3447</v>
+      </c>
+      <c r="K23" s="2">
+        <v>11.8804</v>
+      </c>
+      <c r="L23" s="2">
+        <v>13.216699999999999</v>
+      </c>
+      <c r="M23" s="2">
+        <v>13.048400000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>11.1663</v>
+      </c>
       <c r="O23" s="9"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="6">
+        <v>12.436999999999999</v>
+      </c>
       <c r="Q23" s="31"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="R23" s="5">
+        <v>15.814399999999999</v>
+      </c>
+      <c r="S23" s="5">
+        <v>16.130199999999999</v>
+      </c>
+      <c r="T23" s="5">
+        <v>16.000699999999998</v>
+      </c>
+      <c r="U23" s="5">
+        <v>15.355499999999999</v>
+      </c>
+      <c r="V23" s="5">
+        <v>14.9788</v>
+      </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="6"/>
+      <c r="X23" s="6">
+        <v>15.246499999999999</v>
+      </c>
       <c r="Y23" s="32"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -2463,9 +2506,9 @@
       <c r="H24" s="38"/>
       <c r="I24" s="6"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="2"/>
       <c r="O24" s="9"/>
       <c r="P24" s="6"/>
@@ -2522,7 +2565,9 @@
       <c r="H25" s="38">
         <v>6.5789</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6">
+        <v>8.3598999999999997</v>
+      </c>
       <c r="J25" s="2">
         <v>12.226800000000001</v>
       </c>
@@ -2542,7 +2587,9 @@
       <c r="P25" s="6">
         <v>11.626799999999999</v>
       </c>
-      <c r="Q25" s="31"/>
+      <c r="Q25" s="31">
+        <v>13.7281</v>
+      </c>
       <c r="R25" s="5">
         <v>20.426400000000001</v>
       </c>
@@ -2562,7 +2609,9 @@
       <c r="X25" s="6">
         <v>19.439399999999999</v>
       </c>
-      <c r="Y25" s="32"/>
+      <c r="Y25" s="32">
+        <v>21.138300000000001</v>
+      </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -2683,67 +2732,31 @@
       <c r="AT27" s="1"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9.8785000000000007</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10.472</v>
-      </c>
-      <c r="D28" s="3">
-        <v>10.082599999999999</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10.0396</v>
-      </c>
-      <c r="F28" s="3">
-        <v>9.8620999999999999</v>
-      </c>
+      <c r="A28" s="39"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="38">
-        <v>9.8078000000000003</v>
-      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="2">
-        <v>15.2005</v>
-      </c>
-      <c r="K28" s="2">
-        <v>15.7233</v>
-      </c>
-      <c r="L28" s="2">
-        <v>15.401899999999999</v>
-      </c>
-      <c r="M28" s="2">
-        <v>15.0655</v>
-      </c>
-      <c r="N28" s="2">
-        <v>15.096399999999999</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="6">
-        <v>14.730600000000001</v>
-      </c>
-      <c r="R28" s="5">
-        <v>23.989799999999999</v>
-      </c>
-      <c r="S28" s="5">
-        <v>26.255700000000001</v>
-      </c>
-      <c r="T28" s="5">
-        <v>24.3643</v>
-      </c>
-      <c r="U28" s="5">
-        <v>23.488700000000001</v>
-      </c>
-      <c r="V28" s="5">
-        <v>23.5383</v>
-      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="6">
-        <v>23.267199999999999</v>
-      </c>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="32"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2788,7 +2801,9 @@
       <c r="H29" s="38">
         <v>11.041700000000001</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6">
+        <v>16.128499999999999</v>
+      </c>
       <c r="J29" s="2">
         <v>21.837499999999999</v>
       </c>
@@ -2808,7 +2823,9 @@
       <c r="P29" s="6">
         <v>19.9984</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="31">
+        <v>26.139600000000002</v>
+      </c>
       <c r="R29" s="5">
         <v>37.251800000000003</v>
       </c>
@@ -2828,7 +2845,9 @@
       <c r="X29" s="6">
         <v>38.5197</v>
       </c>
-      <c r="Y29" s="32"/>
+      <c r="Y29" s="32">
+        <v>43.166899999999998</v>
+      </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -2873,7 +2892,9 @@
       <c r="H30" s="38">
         <v>12.252000000000001</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6">
+        <v>17.4709</v>
+      </c>
       <c r="J30" s="2">
         <v>19.646899999999999</v>
       </c>
@@ -2893,7 +2914,9 @@
       <c r="P30" s="6">
         <v>21.2882</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="31">
+        <v>24.552800000000001</v>
+      </c>
       <c r="R30" s="5">
         <v>32.524700000000003</v>
       </c>
@@ -2913,7 +2936,9 @@
       <c r="X30" s="6">
         <v>35.664299999999997</v>
       </c>
-      <c r="Y30" s="32"/>
+      <c r="Y30" s="32">
+        <v>39.750300000000003</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -2936,9 +2961,7 @@
       <c r="AT30" s="1"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="A31" s="39"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2948,9 +2971,9 @@
       <c r="H31" s="33"/>
       <c r="I31" s="6"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="6"/>
@@ -2985,31 +3008,66 @@
     </row>
     <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20.6159</v>
+      </c>
+      <c r="C32" s="3">
+        <v>20.1919</v>
+      </c>
+      <c r="D32" s="3">
+        <v>123.1863</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20.3658</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20.169799999999999</v>
+      </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="H32" s="6">
+        <v>20.6799</v>
+      </c>
+      <c r="J32">
+        <v>33.0261</v>
+      </c>
+      <c r="K32" s="6">
+        <v>31.638999999999999</v>
+      </c>
+      <c r="L32" s="26">
+        <v>32.584099999999999</v>
+      </c>
+      <c r="M32" s="26">
+        <v>32.014000000000003</v>
+      </c>
+      <c r="N32" s="2">
+        <v>32.984999999999999</v>
+      </c>
       <c r="O32" s="9"/>
-      <c r="P32" s="6"/>
+      <c r="P32" s="6">
+        <v>31.521000000000001</v>
+      </c>
       <c r="Q32" s="31"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="R32" s="5">
+        <v>49.452500000000001</v>
+      </c>
+      <c r="S32" s="5">
+        <v>50.906599999999997</v>
+      </c>
+      <c r="T32" s="5">
+        <v>49.933399999999999</v>
+      </c>
+      <c r="U32" s="5">
+        <v>51.651200000000003</v>
+      </c>
+      <c r="V32" s="5">
+        <v>49.378</v>
+      </c>
       <c r="W32" s="1"/>
-      <c r="X32" s="6"/>
+      <c r="X32" s="6">
+        <v>49.403199999999998</v>
+      </c>
       <c r="Y32" s="32"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -3034,31 +3092,67 @@
     </row>
     <row r="33" spans="1:46">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>11.183299999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10.8253</v>
+      </c>
+      <c r="D33" s="3">
+        <v>11.2323</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11.0421</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10.3872</v>
+      </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="H33" s="6">
+        <v>10.412599999999999</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32">
+        <v>17.168399999999998</v>
+      </c>
+      <c r="K33" s="6">
+        <v>18.052700000000002</v>
+      </c>
+      <c r="L33" s="31">
+        <v>17.3415</v>
+      </c>
+      <c r="M33" s="32">
+        <v>16.665700000000001</v>
+      </c>
+      <c r="N33" s="2">
+        <v>16.6511</v>
+      </c>
       <c r="O33" s="9"/>
-      <c r="P33" s="6"/>
+      <c r="P33" s="6">
+        <v>16.455400000000001</v>
+      </c>
       <c r="Q33" s="31"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="R33" s="5">
+        <v>25.931899999999999</v>
+      </c>
+      <c r="S33" s="5">
+        <v>25.622299999999999</v>
+      </c>
+      <c r="T33" s="5">
+        <v>25.1205</v>
+      </c>
+      <c r="U33" s="5">
+        <v>25.1906</v>
+      </c>
+      <c r="V33" s="5">
+        <v>26.7637</v>
+      </c>
       <c r="W33" s="1"/>
-      <c r="X33" s="6"/>
+      <c r="X33" s="6">
+        <v>24.8965</v>
+      </c>
       <c r="Y33" s="32"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -3083,31 +3177,67 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>13.648300000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>15.2241</v>
+      </c>
+      <c r="D34" s="3">
+        <v>14.4857</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15.071999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>13.8965</v>
+      </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="33">
+        <v>13.251099999999999</v>
+      </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="J34" s="2">
+        <v>25.744800000000001</v>
+      </c>
+      <c r="K34" s="6">
+        <v>27.068899999999999</v>
+      </c>
+      <c r="L34">
+        <v>27.134899999999998</v>
+      </c>
+      <c r="M34">
+        <v>27.169599999999999</v>
+      </c>
+      <c r="N34" s="2">
+        <v>25.031400000000001</v>
+      </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="6"/>
+      <c r="P34" s="6">
+        <v>25.314599999999999</v>
+      </c>
       <c r="Q34" s="31"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="R34" s="5">
+        <v>46.731000000000002</v>
+      </c>
+      <c r="S34" s="5">
+        <v>47.271799999999999</v>
+      </c>
+      <c r="T34" s="5">
+        <v>46.986699999999999</v>
+      </c>
+      <c r="U34" s="5">
+        <v>46.7363</v>
+      </c>
+      <c r="V34" s="5">
+        <v>45.371200000000002</v>
+      </c>
       <c r="W34" s="1"/>
-      <c r="X34" s="6"/>
+      <c r="X34" s="6">
+        <v>45.546599999999998</v>
+      </c>
       <c r="Y34" s="32"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -3132,7 +3262,7 @@
     </row>
     <row r="35" spans="1:46">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3143,9 +3273,9 @@
       <c r="H35" s="8"/>
       <c r="I35" s="6"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="2"/>
       <c r="O35" s="9"/>
       <c r="P35" s="6"/>
@@ -3181,32 +3311,74 @@
     </row>
     <row r="36" spans="1:46">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10.1388</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9.9451000000000001</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9.3835999999999995</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9.5673999999999992</v>
+      </c>
+      <c r="F36" s="3">
+        <v>9.9238</v>
+      </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="H36" s="33">
+        <v>9.2387999999999995</v>
+      </c>
+      <c r="I36" s="6">
+        <v>11.8858</v>
+      </c>
+      <c r="J36" s="2">
+        <v>18.2333</v>
+      </c>
+      <c r="K36" s="2">
+        <v>18.7087</v>
+      </c>
+      <c r="L36" s="2">
+        <v>18.5412</v>
+      </c>
+      <c r="M36" s="2">
+        <v>17.069199999999999</v>
+      </c>
+      <c r="N36" s="2">
+        <v>16.8704</v>
+      </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="P36" s="6">
+        <v>16.9328</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>18.930599999999998</v>
+      </c>
+      <c r="R36" s="5">
+        <v>29.0656</v>
+      </c>
+      <c r="S36" s="5">
+        <v>30.179600000000001</v>
+      </c>
+      <c r="T36" s="5">
+        <v>28.660699999999999</v>
+      </c>
+      <c r="U36" s="5">
+        <v>30.965299999999999</v>
+      </c>
+      <c r="V36" s="5">
+        <v>28.930700000000002</v>
+      </c>
       <c r="W36" s="1"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="32"/>
+      <c r="X36" s="6">
+        <v>28.7514</v>
+      </c>
+      <c r="Y36" s="32">
+        <v>30.392299999999999</v>
+      </c>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
@@ -3229,67 +3401,31 @@
       <c r="AT36" s="1"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3">
-        <v>8.0328999999999997</v>
-      </c>
-      <c r="C37" s="3">
-        <v>8.0848999999999993</v>
-      </c>
-      <c r="D37" s="3">
-        <v>8.5015999999999998</v>
-      </c>
-      <c r="E37" s="3">
-        <v>8.2491000000000003</v>
-      </c>
-      <c r="F37" s="3">
-        <v>7.9595000000000002</v>
-      </c>
+      <c r="A37" s="39"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="33">
-        <v>8.0765999999999991</v>
-      </c>
+      <c r="H37" s="33"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="2">
-        <v>13.834899999999999</v>
-      </c>
-      <c r="K37" s="2">
-        <v>13.7181</v>
-      </c>
-      <c r="L37" s="2">
-        <v>14.946099999999999</v>
-      </c>
-      <c r="M37" s="2">
-        <v>14.0799</v>
-      </c>
-      <c r="N37" s="2">
-        <v>14.586399999999999</v>
-      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="6">
-        <v>13.543900000000001</v>
-      </c>
-      <c r="R37" s="5">
-        <v>20.6008</v>
-      </c>
-      <c r="S37" s="5">
-        <v>20.7224</v>
-      </c>
-      <c r="T37" s="5">
-        <v>20.7867</v>
-      </c>
-      <c r="U37" s="5">
-        <v>20.728100000000001</v>
-      </c>
-      <c r="V37" s="5">
-        <v>20.475100000000001</v>
-      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="6">
-        <v>20.186800000000002</v>
-      </c>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="32"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
@@ -3313,7 +3449,7 @@
     </row>
     <row r="38" spans="1:46">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3">
         <v>10.322699999999999</v>
@@ -3334,7 +3470,9 @@
       <c r="H38" s="33">
         <v>10.3758</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="6">
+        <v>12.2621</v>
+      </c>
       <c r="J38" s="2">
         <v>15.6075</v>
       </c>
@@ -3354,7 +3492,9 @@
       <c r="P38" s="6">
         <v>15.564500000000001</v>
       </c>
-      <c r="Q38" s="31"/>
+      <c r="Q38" s="31">
+        <v>17.984999999999999</v>
+      </c>
       <c r="R38" s="5">
         <v>24.303699999999999</v>
       </c>
@@ -3374,7 +3514,9 @@
       <c r="X38" s="6">
         <v>26.873799999999999</v>
       </c>
-      <c r="Y38" s="32"/>
+      <c r="Y38" s="32">
+        <v>27.700900000000001</v>
+      </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
@@ -3397,67 +3539,30 @@
       <c r="AT38" s="1"/>
     </row>
     <row r="39" spans="1:46">
-      <c r="A39" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3">
-        <v>13.7082</v>
-      </c>
-      <c r="C39" s="3">
-        <v>13.393000000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>13.248200000000001</v>
-      </c>
-      <c r="E39" s="3">
-        <v>14.2013</v>
-      </c>
-      <c r="F39" s="3">
-        <v>13.173</v>
-      </c>
+      <c r="A39" s="39"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="33">
-        <v>12.7438</v>
-      </c>
+      <c r="H39" s="33"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="2">
-        <v>23.284500000000001</v>
-      </c>
-      <c r="K39" s="2">
-        <v>23.718800000000002</v>
-      </c>
-      <c r="L39" s="2">
-        <v>22.645299999999999</v>
-      </c>
-      <c r="M39" s="2">
-        <v>22.046900000000001</v>
-      </c>
-      <c r="N39" s="2">
-        <v>22.865200000000002</v>
-      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="6">
-        <v>21.762599999999999</v>
-      </c>
-      <c r="R39" s="5">
-        <v>42.055399999999999</v>
-      </c>
-      <c r="S39" s="5">
-        <v>43.272100000000002</v>
-      </c>
-      <c r="T39" s="5">
-        <v>40.272300000000001</v>
-      </c>
-      <c r="U39" s="5">
-        <v>42.771599999999999</v>
-      </c>
-      <c r="V39" s="5">
-        <v>42.360700000000001</v>
-      </c>
+      <c r="P39" s="6"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="6">
-        <v>40.288499999999999</v>
-      </c>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="32"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
@@ -3481,7 +3586,7 @@
     </row>
     <row r="40" spans="1:46">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>9.5876999999999999</v>
@@ -3502,7 +3607,9 @@
       <c r="H40" s="33">
         <v>9.6373999999999995</v>
       </c>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6">
+        <v>12.0014</v>
+      </c>
       <c r="J40" s="2">
         <v>16.395499999999998</v>
       </c>
@@ -3522,7 +3629,9 @@
       <c r="P40" s="6">
         <v>18.031400000000001</v>
       </c>
-      <c r="Q40" s="31"/>
+      <c r="Q40" s="31">
+        <v>18.2563</v>
+      </c>
       <c r="R40" s="5">
         <v>25.477799999999998</v>
       </c>
@@ -3542,7 +3651,9 @@
       <c r="X40" s="6">
         <v>30.352799999999998</v>
       </c>
-      <c r="Y40" s="32"/>
+      <c r="Y40" s="32">
+        <v>27.213899999999999</v>
+      </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
@@ -3566,7 +3677,7 @@
     </row>
     <row r="41" spans="1:46">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3614,67 +3725,31 @@
       <c r="AT41" s="1"/>
     </row>
     <row r="42" spans="1:46">
-      <c r="A42" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3">
-        <v>10.96</v>
-      </c>
-      <c r="C42" s="3">
-        <v>10.1685</v>
-      </c>
-      <c r="D42" s="3">
-        <v>10.7775</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10.411300000000001</v>
-      </c>
-      <c r="F42" s="3">
-        <v>10.734</v>
-      </c>
+      <c r="A42" s="39"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="33">
-        <v>10.065200000000001</v>
-      </c>
+      <c r="H42" s="33"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="2">
-        <v>21.092199999999998</v>
-      </c>
-      <c r="K42" s="2">
-        <v>20.424199999999999</v>
-      </c>
-      <c r="L42" s="2">
-        <v>19.802299999999999</v>
-      </c>
-      <c r="M42" s="2">
-        <v>20.200500000000002</v>
-      </c>
-      <c r="N42" s="2">
-        <v>19.923100000000002</v>
-      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="6">
-        <v>18.689</v>
-      </c>
-      <c r="R42" s="5">
-        <v>31.7942</v>
-      </c>
-      <c r="S42" s="5">
-        <v>36.0428</v>
-      </c>
-      <c r="T42" s="5">
-        <v>33.933999999999997</v>
-      </c>
-      <c r="U42" s="5">
-        <v>36.196300000000001</v>
-      </c>
-      <c r="V42" s="5">
-        <v>33.619399999999999</v>
-      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="6">
-        <v>33.595599999999997</v>
-      </c>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="32"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -3698,7 +3773,7 @@
     </row>
     <row r="43" spans="1:46">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3743,7 +3818,7 @@
     </row>
     <row r="44" spans="1:46">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3">
         <v>9.6669</v>
@@ -3764,7 +3839,9 @@
       <c r="H44" s="33">
         <v>9.0126000000000008</v>
       </c>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6">
+        <v>12.321400000000001</v>
+      </c>
       <c r="J44" s="2">
         <v>16.074300000000001</v>
       </c>
@@ -3784,7 +3861,9 @@
       <c r="P44" s="6">
         <v>15.1532</v>
       </c>
-      <c r="Q44" s="31"/>
+      <c r="Q44" s="31">
+        <v>19.1645</v>
+      </c>
       <c r="R44" s="5">
         <v>26.483000000000001</v>
       </c>
@@ -3804,7 +3883,9 @@
       <c r="X44" s="6">
         <v>23.098400000000002</v>
       </c>
-      <c r="Y44" s="32"/>
+      <c r="Y44" s="32">
+        <v>28.876200000000001</v>
+      </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
@@ -3828,7 +3909,7 @@
     </row>
     <row r="45" spans="1:46">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3873,7 +3954,7 @@
     </row>
     <row r="46" spans="1:46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3">
         <v>8.9709000000000003</v>
@@ -3964,7 +4045,7 @@
     </row>
     <row r="47" spans="1:46">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4013,7 +4094,7 @@
     </row>
     <row r="48" spans="1:46">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3">
         <v>8.9936000000000007</v>
@@ -4104,7 +4185,7 @@
     </row>
     <row r="49" spans="1:46">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4153,7 +4234,7 @@
     </row>
     <row r="50" spans="1:46">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4202,7 +4283,7 @@
     </row>
     <row r="51" spans="1:46">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4251,7 +4332,7 @@
     </row>
     <row r="52" spans="1:46">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="3">
         <v>8.4703999999999997</v>
@@ -4342,7 +4423,7 @@
     </row>
     <row r="53" spans="1:46">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3">
         <v>13.96</v>
@@ -4433,7 +4514,7 @@
     </row>
     <row r="54" spans="1:46">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3">
         <v>14.9521</v>
@@ -4524,7 +4605,7 @@
     </row>
     <row r="55" spans="1:46">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4604,27 +4685,27 @@
     </row>
     <row r="58" spans="1:46">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.170630434782609</v>
+        <v>11.538745833333335</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>11.608495652173914</v>
+        <v>12.038245833333335</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>11.396113043478261</v>
+        <v>16.055175000000002</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>11.840230434782608</v>
+        <v>12.220579166666665</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.236878260869561</v>
+        <v>11.588250000000002</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4632,31 +4713,31 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>10.95261304347826</v>
+        <v>11.324512499999999</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
-        <v>15.794100000000002</v>
+        <v>14.537510000000001</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.110821739130433</v>
+        <v>19.652254166666665</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.307965217391306</v>
+        <v>20.868687500000004</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.330521739130436</v>
+        <v>20.984366666666666</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>19.214795652173915</v>
+        <v>19.854766666666674</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>19.674791304347824</v>
+        <v>20.114720833333333</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4664,31 +4745,31 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>18.915956521739133</v>
+        <v>19.5417375</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
-        <v>24.864316666666664</v>
+        <v>22.682094999999997</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>30.531939130434782</v>
+        <v>31.282908333333335</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.280834782608693</v>
+        <v>32.761529166666669</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>31.389556521739124</v>
+        <v>32.054354166666663</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.072513043478253</v>
+        <v>32.682583333333334</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.064765217391304</v>
+        <v>32.621604166666664</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4696,422 +4777,485 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>31.058208695652173</v>
+        <v>31.701870833333334</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>37.885941666666668</v>
+        <v>34.898670000000003</v>
       </c>
     </row>
     <row r="59" spans="1:46">
       <c r="A59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="6"/>
       <c r="P59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V59" s="6"/>
       <c r="X59" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46">
+      <c r="A63" t="s">
         <v>84</v>
       </c>
-      <c r="Y59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:46">
-      <c r="A63" s="28">
-        <v>11.241199999999999</v>
-      </c>
-      <c r="B63" s="1">
-        <v>16.9072</v>
-      </c>
-    </row>
-    <row r="64" spans="1:46">
-      <c r="A64" s="29"/>
-      <c r="B64" s="24"/>
-      <c r="D64" t="s">
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" ht="17.25" thickBot="1">
+      <c r="N64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="24"/>
-      <c r="I65" t="s">
+      <c r="C65" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="M65" t="s">
+      <c r="G65" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="6"/>
+      <c r="K65" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A66" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="42">
+        <v>14.308454166666666</v>
+      </c>
+      <c r="C66" s="42">
+        <v>10.881204166666668</v>
+      </c>
       <c r="D66" s="44"/>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="42">
+        <v>22.185325000000002</v>
+      </c>
+      <c r="G66" s="42">
+        <v>18.833325000000006</v>
+      </c>
+      <c r="I66" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J66" s="42">
+        <v>34.295079166666667</v>
+      </c>
+      <c r="K66" s="42">
+        <v>30.962091666666666</v>
+      </c>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P66" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="44" t="s">
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="42">
+        <v>15.686152293025415</v>
+      </c>
+      <c r="C67" s="42">
+        <v>8.8676272221557504</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="42">
+        <v>36.054207399347987</v>
+      </c>
+      <c r="G67" s="42">
+        <v>23.209435974130312</v>
+      </c>
+      <c r="I67" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J67" s="42">
+        <v>80.156337748677245</v>
+      </c>
+      <c r="K67" s="42">
+        <v>63.314158353840511</v>
+      </c>
+      <c r="M67" s="44"/>
+      <c r="N67" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="37"/>
-      <c r="D67" s="42" t="s">
+      <c r="O67" s="42">
+        <v>14.537510000000001</v>
+      </c>
+      <c r="P67" s="42">
+        <v>11.022774999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="42">
+        <v>24</v>
+      </c>
+      <c r="C68" s="42">
+        <v>24</v>
+      </c>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="42">
+        <v>24</v>
+      </c>
+      <c r="G68" s="42">
+        <v>24</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="42">
+        <v>24</v>
+      </c>
+      <c r="K68" s="42">
+        <v>24</v>
+      </c>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="42">
-        <v>12.050391666666664</v>
-      </c>
-      <c r="F67" s="42">
-        <v>15.794100000000002</v>
-      </c>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="O67" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="6"/>
-      <c r="D68" s="42" t="s">
+      <c r="O68" s="42">
+        <v>17.825528477789465</v>
+      </c>
+      <c r="P68" s="42">
+        <v>10.021129106184233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="42">
+        <v>12.276889757590583</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="42">
+        <v>29.631821686739148</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="I69" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="42">
+        <v>71.735248051258878</v>
+      </c>
+      <c r="K69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="42">
-        <v>12.359843048106107</v>
-      </c>
-      <c r="F68" s="42">
-        <v>21.168139756363541</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J68" s="42">
-        <v>20.941783333333333</v>
-      </c>
-      <c r="K68" s="42">
-        <v>24.864316666666664</v>
-      </c>
-      <c r="M68" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="N68" s="42">
-        <v>37.885941666666668</v>
-      </c>
-      <c r="O68" s="42">
-        <v>33.491783333333331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="22"/>
-      <c r="D69" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="42">
-        <v>12</v>
-      </c>
-      <c r="F69" s="42">
-        <v>12</v>
-      </c>
-      <c r="G69" s="44"/>
-      <c r="I69" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="J69" s="42">
-        <v>28.135009628787884</v>
-      </c>
-      <c r="K69" s="42">
-        <v>45.093368903333612</v>
-      </c>
-      <c r="M69" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="N69" s="42">
-        <v>83.778982042651478</v>
-      </c>
       <c r="O69" s="42">
-        <v>65.284341339697093</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="33">
-        <v>15.868399999999999</v>
-      </c>
-      <c r="B70" s="6">
-        <v>18.741800000000001</v>
-      </c>
-      <c r="D70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="42">
-        <v>16.763991402234822</v>
-      </c>
-      <c r="F70" s="42"/>
+      <c r="B70" s="42">
+        <v>0</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="42">
+        <v>0</v>
+      </c>
       <c r="G70" s="42"/>
       <c r="I70" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="42">
+        <v>0</v>
+      </c>
+      <c r="K70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J70" s="42">
-        <v>12</v>
-      </c>
-      <c r="K70" s="42">
-        <v>12</v>
-      </c>
-      <c r="M70" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="N70" s="42">
-        <v>12</v>
-      </c>
       <c r="O70" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="33">
-        <v>9.5009999999999994</v>
-      </c>
-      <c r="B71" s="6">
-        <v>13.225199999999999</v>
-      </c>
-      <c r="D71" s="42" t="s">
+        <v>13.923328791986849</v>
+      </c>
+      <c r="P70" s="42"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="42">
-        <v>0</v>
-      </c>
-      <c r="F71" s="42"/>
+      <c r="B71" s="42">
+        <v>46</v>
+      </c>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="42">
+        <v>46</v>
+      </c>
       <c r="G71" s="42"/>
       <c r="I71" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71" s="42">
+        <v>46</v>
+      </c>
+      <c r="K71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="J71" s="42">
-        <v>36.614189266060748</v>
-      </c>
-      <c r="K71" s="42"/>
-      <c r="M71" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="N71" s="42">
-        <v>74.531661691174293</v>
-      </c>
-      <c r="O71" s="42"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="6"/>
-      <c r="D72" s="42" t="s">
+      <c r="O71" s="42">
+        <v>0</v>
+      </c>
+      <c r="P71" s="42"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="42">
-        <v>22</v>
-      </c>
-      <c r="F72" s="42"/>
+      <c r="B72" s="42">
+        <v>3.388380939855415</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="42">
+        <v>2.1331208327475877</v>
+      </c>
       <c r="G72" s="42"/>
       <c r="I72" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" s="42">
+        <v>1.3631950666300847</v>
+      </c>
+      <c r="K72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J72" s="42">
-        <v>0</v>
-      </c>
-      <c r="K72" s="42"/>
-      <c r="M72" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="N72" s="42">
-        <v>0</v>
-      </c>
-      <c r="O72" s="42"/>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="6"/>
-      <c r="D73" s="42" t="s">
+      <c r="O72" s="42">
+        <v>38</v>
+      </c>
+      <c r="P72" s="42"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="42">
-        <v>-2.2396951865559527</v>
-      </c>
-      <c r="F73" s="42"/>
+      <c r="B73" s="42">
+        <v>7.2512696339873425E-4</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="42">
+        <v>1.9141047165899348E-2</v>
+      </c>
       <c r="G73" s="42"/>
       <c r="I73" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73" s="42">
+        <v>8.972827265615553E-2</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="J73" s="42">
-        <v>22</v>
-      </c>
-      <c r="K73" s="42"/>
-      <c r="M73" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="N73" s="42">
-        <v>22</v>
-      </c>
-      <c r="O73" s="42"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="40">
-        <v>10.547499999999999</v>
-      </c>
-      <c r="B74" s="6">
-        <v>11.865500000000001</v>
-      </c>
-      <c r="D74" s="42" t="s">
+      <c r="O73" s="42">
+        <v>2.9786607772578608</v>
+      </c>
+      <c r="P73" s="42"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E74" s="42">
-        <v>1.7770942485252461E-2</v>
-      </c>
-      <c r="F74" s="42"/>
+      <c r="B74" s="42">
+        <v>1.678660413556865</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="42">
+        <v>1.678660413556865</v>
+      </c>
       <c r="G74" s="42"/>
       <c r="I74" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J74" s="42">
+        <v>1.678660413556865</v>
+      </c>
+      <c r="K74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="42">
-        <v>-1.5878795552264446</v>
-      </c>
-      <c r="K74" s="42"/>
-      <c r="M74" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="N74" s="42">
-        <v>1.2467544438558449</v>
-      </c>
-      <c r="O74" s="42"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="38">
-        <v>8.5629000000000008</v>
-      </c>
-      <c r="B75" s="6">
-        <v>10.468299999999999</v>
-      </c>
-      <c r="D75" s="42" t="s">
+      <c r="O74" s="42">
+        <v>2.5107833041691525E-3</v>
+      </c>
+      <c r="P74" s="42"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="42">
-        <v>1.7171443743802424</v>
-      </c>
-      <c r="F75" s="42"/>
+      <c r="B75" s="42">
+        <v>1.4502539267974685E-3</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="42">
+        <v>3.8282094331798695E-2</v>
+      </c>
       <c r="G75" s="42"/>
       <c r="I75" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" s="42">
+        <v>0.17945654531231106</v>
+      </c>
+      <c r="K75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="J75" s="42">
-        <v>6.3291505851298224E-2</v>
-      </c>
-      <c r="K75" s="42"/>
-      <c r="M75" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N75" s="42">
-        <v>0.11279944198539466</v>
-      </c>
-      <c r="O75" s="42"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="33">
-        <v>18.376799999999999</v>
-      </c>
-      <c r="B76" s="6">
-        <v>21.612400000000001</v>
-      </c>
-      <c r="D76" s="42" t="s">
+      <c r="O75" s="42">
+        <v>1.6859544601667387</v>
+      </c>
+      <c r="P75" s="42"/>
+    </row>
+    <row r="76" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A76" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="42">
-        <v>3.5541884970504922E-2</v>
-      </c>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="I76" s="42" t="s">
+      <c r="B76" s="43">
+        <v>2.0128955989194299</v>
+      </c>
+      <c r="C76" s="43"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="43">
+        <v>2.0128955989194299</v>
+      </c>
+      <c r="G76" s="43"/>
+      <c r="I76" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="43">
+        <v>2.0128955989194299</v>
+      </c>
+      <c r="K76" s="43"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J76" s="42">
-        <v>1.7171443743802424</v>
-      </c>
-      <c r="K76" s="42"/>
-      <c r="M76" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="N76" s="42">
-        <v>1.7171443743802424</v>
-      </c>
-      <c r="O76" s="42"/>
-    </row>
-    <row r="77" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A77" s="33">
-        <v>16.991900000000001</v>
-      </c>
-      <c r="B77" s="6">
-        <v>25.281400000000001</v>
-      </c>
-      <c r="D77" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="43">
-        <v>2.0738730679040258</v>
-      </c>
+      <c r="O76" s="42">
+        <v>5.021566608338305E-3</v>
+      </c>
+      <c r="P76" s="42"/>
+    </row>
+    <row r="77" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A77" s="33"/>
+      <c r="B77" s="6"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="43"/>
       <c r="G77" s="42"/>
-      <c r="I77" s="42" t="s">
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J77" s="42">
-        <v>0.12658301170259645</v>
-      </c>
-      <c r="K77" s="42"/>
-      <c r="M77" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="N77" s="42">
-        <v>0.22559888397078931</v>
-      </c>
-      <c r="O77" s="42"/>
-    </row>
-    <row r="78" spans="1:15" ht="17.25" thickBot="1">
+      <c r="O77" s="43">
+        <v>2.0243941639119702</v>
+      </c>
+      <c r="P77" s="43"/>
+    </row>
+    <row r="78" spans="1:16" ht="17.25" thickBot="1">
       <c r="A78" s="8"/>
       <c r="B78" s="6"/>
       <c r="E78" s="42"/>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
-      <c r="I78" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J78" s="43">
-        <v>2.0738730679040258</v>
-      </c>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
       <c r="K78" s="43"/>
-      <c r="M78" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="N78" s="43">
-        <v>2.0738730679040258</v>
-      </c>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
       <c r="O78" s="43"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79" s="8"/>
       <c r="B79" s="6"/>
       <c r="E79" s="42"/>
@@ -5124,7 +5268,7 @@
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
     </row>
-    <row r="80" spans="1:15" ht="17.25" thickBot="1">
+    <row r="80" spans="1:16" ht="17.25" thickBot="1">
       <c r="A80" s="38"/>
       <c r="B80" s="6"/>
       <c r="E80" s="43"/>
@@ -5137,67 +5281,470 @@
       <c r="N80" s="43"/>
       <c r="O80" s="43"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:46">
       <c r="A81" s="38"/>
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:46">
       <c r="A82" s="38"/>
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:46">
       <c r="A83" s="38"/>
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:46">
       <c r="A84" s="38"/>
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="38"/>
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="38"/>
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:2">
+    <row r="85" spans="1:46">
+      <c r="A85" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="6">
+        <v>11.3744</v>
+      </c>
+      <c r="C85">
+        <v>12.9122</v>
+      </c>
+      <c r="D85">
+        <v>13.0756</v>
+      </c>
+      <c r="E85">
+        <v>12.800599999999999</v>
+      </c>
+      <c r="F85">
+        <v>11.5441</v>
+      </c>
+      <c r="H85">
+        <v>11.8401</v>
+      </c>
+      <c r="J85">
+        <v>21.448699999999999</v>
+      </c>
+      <c r="K85">
+        <v>25.1218</v>
+      </c>
+      <c r="L85">
+        <v>23.040199999999999</v>
+      </c>
+      <c r="M85">
+        <v>24.9557</v>
+      </c>
+      <c r="N85">
+        <v>23.1248</v>
+      </c>
+      <c r="P85">
+        <v>23.1248</v>
+      </c>
+      <c r="R85">
+        <v>35.5244</v>
+      </c>
+      <c r="S85">
+        <v>43.655700000000003</v>
+      </c>
+      <c r="T85">
+        <v>42.177700000000002</v>
+      </c>
+      <c r="U85">
+        <v>39.821599999999997</v>
+      </c>
+      <c r="V85">
+        <v>41.337400000000002</v>
+      </c>
+      <c r="X85">
+        <v>40.748399999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46">
+      <c r="A86" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="3">
+        <v>9.8785000000000007</v>
+      </c>
+      <c r="C86" s="3">
+        <v>10.472</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10.082599999999999</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10.0396</v>
+      </c>
+      <c r="F86" s="3">
+        <v>9.8620999999999999</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="38">
+        <v>9.8078000000000003</v>
+      </c>
+      <c r="I86" s="6">
+        <v>12.8874</v>
+      </c>
+      <c r="J86" s="2">
+        <v>15.2005</v>
+      </c>
+      <c r="K86" s="2">
+        <v>15.7233</v>
+      </c>
+      <c r="L86" s="2">
+        <v>15.401899999999999</v>
+      </c>
+      <c r="M86" s="2">
+        <v>15.0655</v>
+      </c>
+      <c r="N86" s="2">
+        <v>15.096399999999999</v>
+      </c>
+      <c r="O86" s="9"/>
+      <c r="P86" s="6">
+        <v>14.730600000000001</v>
+      </c>
+      <c r="Q86" s="31">
+        <v>16.8752</v>
+      </c>
+      <c r="R86" s="5">
+        <v>23.989799999999999</v>
+      </c>
+      <c r="S86" s="5">
+        <v>26.255700000000001</v>
+      </c>
+      <c r="T86" s="5">
+        <v>24.3643</v>
+      </c>
+      <c r="U86" s="5">
+        <v>23.488700000000001</v>
+      </c>
+      <c r="V86" s="5">
+        <v>23.5383</v>
+      </c>
+      <c r="W86" s="1"/>
+      <c r="X86" s="6">
+        <v>23.267199999999999</v>
+      </c>
+      <c r="Y86" s="32">
+        <v>26.359200000000001</v>
+      </c>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="6"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="5"/>
+      <c r="AT86" s="1"/>
+    </row>
+    <row r="87" spans="1:46">
+      <c r="A87" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="3">
+        <v>8.0328999999999997</v>
+      </c>
+      <c r="C87" s="3">
+        <v>8.0848999999999993</v>
+      </c>
+      <c r="D87" s="3">
+        <v>8.5015999999999998</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8.2491000000000003</v>
+      </c>
+      <c r="F87" s="3">
+        <v>7.9595000000000002</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="33">
+        <v>8.0765999999999991</v>
+      </c>
+      <c r="I87" s="6">
+        <v>10.036099999999999</v>
+      </c>
+      <c r="J87" s="2">
+        <v>13.834899999999999</v>
+      </c>
+      <c r="K87" s="2">
+        <v>13.7181</v>
+      </c>
+      <c r="L87" s="2">
+        <v>14.946099999999999</v>
+      </c>
+      <c r="M87" s="2">
+        <v>14.0799</v>
+      </c>
+      <c r="N87" s="2">
+        <v>14.586399999999999</v>
+      </c>
+      <c r="O87" s="9"/>
+      <c r="P87" s="6">
+        <v>13.543900000000001</v>
+      </c>
+      <c r="Q87" s="31">
+        <v>15.8931</v>
+      </c>
+      <c r="R87" s="5">
+        <v>20.6008</v>
+      </c>
+      <c r="S87" s="5">
+        <v>20.7224</v>
+      </c>
+      <c r="T87" s="5">
+        <v>20.7867</v>
+      </c>
+      <c r="U87" s="5">
+        <v>20.728100000000001</v>
+      </c>
+      <c r="V87" s="5">
+        <v>20.475100000000001</v>
+      </c>
+      <c r="W87" s="1"/>
+      <c r="X87" s="6">
+        <v>20.186800000000002</v>
+      </c>
+      <c r="Y87" s="32">
+        <v>22.083500000000001</v>
+      </c>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="9"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2"/>
+      <c r="AL87" s="2"/>
+      <c r="AM87" s="9"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="5"/>
+      <c r="AS87" s="5"/>
+      <c r="AT87" s="1"/>
+    </row>
+    <row r="88" spans="1:46">
+      <c r="A88" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="3">
+        <v>13.7082</v>
+      </c>
+      <c r="C88" s="3">
+        <v>13.393000000000001</v>
+      </c>
+      <c r="D88" s="3">
+        <v>13.248200000000001</v>
+      </c>
+      <c r="E88" s="3">
+        <v>14.2013</v>
+      </c>
+      <c r="F88" s="3">
+        <v>13.173</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="33">
+        <v>12.7438</v>
+      </c>
+      <c r="I88" s="6">
+        <v>14.5852</v>
+      </c>
+      <c r="J88" s="2">
+        <v>23.284500000000001</v>
+      </c>
+      <c r="K88" s="2">
+        <v>23.718800000000002</v>
+      </c>
+      <c r="L88" s="2">
+        <v>22.645299999999999</v>
+      </c>
+      <c r="M88" s="2">
+        <v>22.046900000000001</v>
+      </c>
+      <c r="N88" s="2">
+        <v>22.865200000000002</v>
+      </c>
+      <c r="O88" s="9"/>
+      <c r="P88" s="6">
+        <v>21.762599999999999</v>
+      </c>
+      <c r="Q88">
+        <v>23.318300000000001</v>
+      </c>
+      <c r="R88" s="5">
+        <v>42.055399999999999</v>
+      </c>
+      <c r="S88" s="5">
+        <v>43.272100000000002</v>
+      </c>
+      <c r="T88" s="5">
+        <v>40.272300000000001</v>
+      </c>
+      <c r="U88" s="5">
+        <v>42.771599999999999</v>
+      </c>
+      <c r="V88" s="5">
+        <v>42.360700000000001</v>
+      </c>
+      <c r="W88" s="1"/>
+      <c r="X88" s="6">
+        <v>40.288499999999999</v>
+      </c>
+      <c r="Y88" s="32">
+        <v>41.3583</v>
+      </c>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="9"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
+      <c r="AL88" s="2"/>
+      <c r="AM88" s="9"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="1"/>
+    </row>
+    <row r="89" spans="1:46">
+      <c r="A89" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="3">
+        <v>10.96</v>
+      </c>
+      <c r="C89" s="3">
+        <v>10.1685</v>
+      </c>
+      <c r="D89" s="3">
+        <v>10.7775</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10.411300000000001</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10.734</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="33">
+        <v>10.065200000000001</v>
+      </c>
+      <c r="I89" s="6">
+        <v>15.144</v>
+      </c>
+      <c r="J89" s="2">
+        <v>21.092199999999998</v>
+      </c>
+      <c r="K89" s="2">
+        <v>20.424199999999999</v>
+      </c>
+      <c r="L89" s="2">
+        <v>19.802299999999999</v>
+      </c>
+      <c r="M89" s="2">
+        <v>20.200500000000002</v>
+      </c>
+      <c r="N89" s="2">
+        <v>19.923100000000002</v>
+      </c>
+      <c r="O89" s="9"/>
+      <c r="P89" s="6">
+        <v>18.689</v>
+      </c>
+      <c r="Q89" s="31">
+        <v>22.7193</v>
+      </c>
+      <c r="R89" s="5">
+        <v>31.7942</v>
+      </c>
+      <c r="S89" s="5">
+        <v>36.0428</v>
+      </c>
+      <c r="T89" s="5">
+        <v>33.933999999999997</v>
+      </c>
+      <c r="U89" s="5">
+        <v>36.196300000000001</v>
+      </c>
+      <c r="V89" s="5">
+        <v>33.619399999999999</v>
+      </c>
+      <c r="W89" s="1"/>
+      <c r="X89" s="6">
+        <v>33.595599999999997</v>
+      </c>
+      <c r="Y89" s="32">
+        <v>35.307499999999997</v>
+      </c>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="9"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
+      <c r="AL89" s="2"/>
+      <c r="AM89" s="9"/>
+      <c r="AN89" s="6"/>
+      <c r="AO89" s="5"/>
+      <c r="AP89" s="5"/>
+      <c r="AQ89" s="5"/>
+      <c r="AR89" s="5"/>
+      <c r="AS89" s="5"/>
+      <c r="AT89" s="1"/>
+    </row>
+    <row r="90" spans="1:46">
       <c r="A90" s="33"/>
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:46">
       <c r="A91" s="33"/>
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:46">
       <c r="A92" s="33"/>
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:46">
       <c r="A93" s="33"/>
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:46">
       <c r="A94" s="8"/>
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:46">
       <c r="A95" s="33"/>
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:46">
       <c r="A96" s="33"/>
       <c r="B96" s="6"/>
     </row>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2637,29 +2637,65 @@
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="3">
+        <v>13.9633</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15.809200000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>16.580300000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15.969099999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13.9071</v>
+      </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="38">
+        <v>14.2456</v>
+      </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="J26" s="2">
+        <v>22.480399999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <v>23.736999999999998</v>
+      </c>
+      <c r="L26" s="2">
+        <v>23.408300000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>25.3811</v>
+      </c>
+      <c r="N26" s="2">
+        <v>23.105799999999999</v>
+      </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="6"/>
+      <c r="P26" s="6">
+        <v>23.259399999999999</v>
+      </c>
       <c r="Q26" s="31"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="R26" s="5">
+        <v>35.3658</v>
+      </c>
+      <c r="S26" s="5">
+        <v>37.1614</v>
+      </c>
+      <c r="T26" s="5">
+        <v>34.681600000000003</v>
+      </c>
+      <c r="U26" s="5">
+        <v>33.908900000000003</v>
+      </c>
+      <c r="V26" s="5">
+        <v>35.7136</v>
+      </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="6"/>
+      <c r="X26" s="6">
+        <v>34.636299999999999</v>
+      </c>
       <c r="Y26" s="32"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -4689,23 +4725,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.538745833333335</v>
+        <v>11.635727999999999</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>12.038245833333335</v>
+        <v>12.189084000000001</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>16.055175000000002</v>
+        <v>16.076180000000004</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.220579166666665</v>
+        <v>12.370519999999999</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.588250000000002</v>
+        <v>11.681004</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4713,7 +4749,7 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>11.324512499999999</v>
+        <v>11.441356000000001</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
@@ -4721,23 +4757,23 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.652254166666665</v>
+        <v>19.76538</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.868687500000004</v>
+        <v>20.983420000000002</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>20.984366666666666</v>
+        <v>21.081323999999999</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>19.854766666666674</v>
+        <v>20.075820000000007</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.114720833333333</v>
+        <v>20.234363999999996</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4745,7 +4781,7 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>19.5417375</v>
+        <v>19.690444000000003</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
@@ -4753,23 +4789,23 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.282908333333335</v>
+        <v>31.446224000000001</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.761529166666669</v>
+        <v>32.937524000000003</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.054354166666663</v>
+        <v>32.159444000000001</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.682583333333334</v>
+        <v>32.731636000000002</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.621604166666664</v>
+        <v>32.745283999999998</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4777,7 +4813,7 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>31.701870833333334</v>
+        <v>31.819247999999998</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>1_Sam</t>
   </si>
@@ -949,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU113"/>
+  <dimension ref="A1:AU141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2431,7 +2431,9 @@
       <c r="H23" s="38">
         <v>6.9892000000000003</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6">
+        <v>9.0561000000000007</v>
+      </c>
       <c r="J23" s="2">
         <v>11.3447</v>
       </c>
@@ -2451,7 +2453,9 @@
       <c r="P23" s="6">
         <v>12.436999999999999</v>
       </c>
-      <c r="Q23" s="31"/>
+      <c r="Q23" s="31">
+        <v>14.2486</v>
+      </c>
       <c r="R23" s="5">
         <v>15.814399999999999</v>
       </c>
@@ -2471,7 +2475,9 @@
       <c r="X23" s="6">
         <v>15.246499999999999</v>
       </c>
-      <c r="Y23" s="32"/>
+      <c r="Y23" s="32">
+        <v>21.5626</v>
+      </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -2508,9 +2514,9 @@
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="9"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="5"/>
@@ -2656,7 +2662,9 @@
       <c r="H26" s="38">
         <v>14.2456</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6">
+        <v>17.5276</v>
+      </c>
       <c r="J26" s="2">
         <v>22.480399999999999</v>
       </c>
@@ -2676,7 +2684,9 @@
       <c r="P26" s="6">
         <v>23.259399999999999</v>
       </c>
-      <c r="Q26" s="31"/>
+      <c r="Q26" s="31">
+        <v>25.880299999999998</v>
+      </c>
       <c r="R26" s="5">
         <v>35.3658</v>
       </c>
@@ -2696,7 +2706,9 @@
       <c r="X26" s="6">
         <v>34.636299999999999</v>
       </c>
-      <c r="Y26" s="32"/>
+      <c r="Y26" s="32">
+        <v>38.2164</v>
+      </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
@@ -3065,6 +3077,9 @@
       <c r="H32" s="6">
         <v>20.6799</v>
       </c>
+      <c r="I32" s="6">
+        <v>26.0166</v>
+      </c>
       <c r="J32">
         <v>33.0261</v>
       </c>
@@ -3084,7 +3099,9 @@
       <c r="P32" s="6">
         <v>31.521000000000001</v>
       </c>
-      <c r="Q32" s="31"/>
+      <c r="Q32" s="31">
+        <v>37.912199999999999</v>
+      </c>
       <c r="R32" s="5">
         <v>49.452500000000001</v>
       </c>
@@ -3104,7 +3121,9 @@
       <c r="X32" s="6">
         <v>49.403199999999998</v>
       </c>
-      <c r="Y32" s="32"/>
+      <c r="Y32" s="32">
+        <v>54.286700000000003</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -3149,7 +3168,9 @@
       <c r="H33" s="6">
         <v>10.412599999999999</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="6">
+        <v>13.830500000000001</v>
+      </c>
       <c r="J33" s="32">
         <v>17.168399999999998</v>
       </c>
@@ -3169,7 +3190,9 @@
       <c r="P33" s="6">
         <v>16.455400000000001</v>
       </c>
-      <c r="Q33" s="31"/>
+      <c r="Q33" s="31">
+        <v>20.349399999999999</v>
+      </c>
       <c r="R33" s="5">
         <v>25.931899999999999</v>
       </c>
@@ -3189,7 +3212,9 @@
       <c r="X33" s="6">
         <v>24.8965</v>
       </c>
-      <c r="Y33" s="32"/>
+      <c r="Y33" s="32">
+        <v>29.5595</v>
+      </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -3234,7 +3259,9 @@
       <c r="H34" s="33">
         <v>13.251099999999999</v>
       </c>
-      <c r="I34" s="6"/>
+      <c r="I34" s="6">
+        <v>17.833500000000001</v>
+      </c>
       <c r="J34" s="2">
         <v>25.744800000000001</v>
       </c>
@@ -3254,7 +3281,9 @@
       <c r="P34" s="6">
         <v>25.314599999999999</v>
       </c>
-      <c r="Q34" s="31"/>
+      <c r="Q34" s="31">
+        <v>29.6113</v>
+      </c>
       <c r="R34" s="5">
         <v>46.731000000000002</v>
       </c>
@@ -3274,7 +3303,9 @@
       <c r="X34" s="6">
         <v>45.546599999999998</v>
       </c>
-      <c r="Y34" s="32"/>
+      <c r="Y34" s="32">
+        <v>50.978299999999997</v>
+      </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -3723,8 +3754,8 @@
       <c r="G41" s="9"/>
       <c r="H41" s="33"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -3770,8 +3801,8 @@
       <c r="G42" s="9"/>
       <c r="H42" s="33"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3819,8 +3850,8 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4753,7 +4784,7 @@
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
-        <v>14.537510000000001</v>
+        <v>15.000579999999999</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
@@ -4785,7 +4816,7 @@
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
-        <v>22.682094999999997</v>
+        <v>23.265748000000009</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
@@ -4817,7 +4848,7 @@
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>34.898670000000003</v>
+        <v>35.703076000000003</v>
       </c>
     </row>
     <row r="59" spans="1:46">
@@ -4845,447 +4876,370 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
-      <c r="A63" t="s">
+    <row r="65" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>84</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I65" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="17.25" thickBot="1">
-      <c r="N64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44" t="s">
+    <row r="66" spans="1:16" ht="17.25" thickBot="1">
+      <c r="D66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C67" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44" t="s">
+      <c r="D67" s="42"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G67" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44" t="s">
+      <c r="I67" s="44"/>
+      <c r="J67" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="K65" s="44" t="s">
+      <c r="K67" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A66" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="42">
-        <v>14.308454166666666</v>
-      </c>
-      <c r="C66" s="42">
-        <v>10.881204166666668</v>
-      </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="42">
-        <v>22.185325000000002</v>
-      </c>
-      <c r="G66" s="42">
-        <v>18.833325000000006</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="J66" s="42">
-        <v>34.295079166666667</v>
-      </c>
-      <c r="K66" s="42">
-        <v>30.962091666666666</v>
-      </c>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="P66" s="44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="42">
-        <v>15.686152293025415</v>
-      </c>
-      <c r="C67" s="42">
-        <v>8.8676272221557504</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="42">
-        <v>36.054207399347987</v>
-      </c>
-      <c r="G67" s="42">
-        <v>23.209435974130312</v>
-      </c>
-      <c r="I67" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="42">
-        <v>80.156337748677245</v>
-      </c>
-      <c r="K67" s="42">
-        <v>63.314158353840511</v>
-      </c>
       <c r="M67" s="44"/>
-      <c r="N67" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="O67" s="42">
-        <v>14.537510000000001</v>
-      </c>
-      <c r="P67" s="42">
-        <v>11.022774999999999</v>
-      </c>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="42">
-        <v>24</v>
+        <v>15.000579999999999</v>
       </c>
       <c r="C68" s="42">
-        <v>24</v>
+        <v>11.441356000000001</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="42">
-        <v>24</v>
+        <v>23.265748000000009</v>
       </c>
       <c r="G68" s="42">
-        <v>24</v>
+        <v>19.690444000000003</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J68" s="42">
-        <v>24</v>
+        <v>35.703076000000003</v>
       </c>
       <c r="K68" s="42">
-        <v>24</v>
+        <v>31.819247999999998</v>
       </c>
       <c r="M68" s="42"/>
-      <c r="N68" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="O68" s="42">
-        <v>17.825528477789465</v>
-      </c>
-      <c r="P68" s="42">
-        <v>10.021129106184233</v>
-      </c>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="42">
-        <v>12.276889757590583</v>
-      </c>
-      <c r="C69" s="42"/>
+        <v>21.476817070833437</v>
+      </c>
+      <c r="C69" s="42">
+        <v>12.969805793399965</v>
+      </c>
       <c r="D69" s="42"/>
       <c r="E69" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="42">
-        <v>29.631821686739148</v>
-      </c>
-      <c r="G69" s="42"/>
+        <v>46.383350235099748</v>
+      </c>
+      <c r="G69" s="42">
+        <v>30.46585479839996</v>
+      </c>
       <c r="I69" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J69" s="42">
-        <v>71.735248051258878</v>
-      </c>
-      <c r="K69" s="42"/>
+        <v>100.37219652273309</v>
+      </c>
+      <c r="K69" s="42">
+        <v>84.11148255426663</v>
+      </c>
       <c r="M69" s="42"/>
-      <c r="N69" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="O69" s="42">
-        <v>20</v>
-      </c>
-      <c r="P69" s="42">
-        <v>20</v>
-      </c>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="42">
-        <v>0</v>
-      </c>
-      <c r="C70" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="C70" s="42">
+        <v>25</v>
+      </c>
       <c r="D70" s="42"/>
       <c r="E70" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="42">
-        <v>0</v>
-      </c>
-      <c r="G70" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="G70" s="42">
+        <v>25</v>
+      </c>
       <c r="I70" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J70" s="42">
-        <v>0</v>
-      </c>
-      <c r="K70" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="K70" s="42">
+        <v>25</v>
+      </c>
       <c r="M70" s="42"/>
-      <c r="N70" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="O70" s="42">
-        <v>13.923328791986849</v>
-      </c>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
       <c r="P70" s="42"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="42">
-        <v>46</v>
+        <v>17.223311432116702</v>
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="42">
-        <v>46</v>
+        <v>38.42460251674985</v>
       </c>
       <c r="G71" s="42"/>
       <c r="I71" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J71" s="42">
-        <v>46</v>
+        <v>92.24183953849986</v>
       </c>
       <c r="K71" s="42"/>
       <c r="M71" s="42"/>
-      <c r="N71" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="O71" s="42">
-        <v>0</v>
-      </c>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
       <c r="P71" s="42"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" s="42">
-        <v>3.388380939855415</v>
+        <v>0</v>
       </c>
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
       <c r="E72" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="42">
-        <v>2.1331208327475877</v>
+        <v>0</v>
       </c>
       <c r="G72" s="42"/>
       <c r="I72" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J72" s="42">
-        <v>1.3631950666300847</v>
+        <v>0</v>
       </c>
       <c r="K72" s="42"/>
       <c r="M72" s="42"/>
-      <c r="N72" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="O72" s="42">
-        <v>38</v>
-      </c>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="42"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" s="42">
-        <v>7.2512696339873425E-4</v>
+        <v>48</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="42">
-        <v>1.9141047165899348E-2</v>
+        <v>48</v>
       </c>
       <c r="G73" s="42"/>
       <c r="I73" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J73" s="42">
-        <v>8.972827265615553E-2</v>
+        <v>48</v>
       </c>
       <c r="K73" s="42"/>
       <c r="M73" s="42"/>
-      <c r="N73" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="O73" s="42">
-        <v>2.9786607772578608</v>
-      </c>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
       <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="42">
-        <v>1.678660413556865</v>
+        <v>3.0321592052064608</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
       <c r="E74" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="42">
-        <v>1.678660413556865</v>
+        <v>2.0392162791624471</v>
       </c>
       <c r="G74" s="42"/>
       <c r="I74" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J74" s="42">
-        <v>1.678660413556865</v>
+        <v>1.4297200816305096</v>
       </c>
       <c r="K74" s="42"/>
       <c r="M74" s="42"/>
-      <c r="N74" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="O74" s="42">
-        <v>2.5107833041691525E-3</v>
-      </c>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
       <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B75" s="42">
-        <v>1.4502539267974685E-3</v>
+        <v>1.9540696253526144E-3</v>
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
       <c r="E75" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="42">
-        <v>3.8282094331798695E-2</v>
+        <v>2.3477365810132766E-2</v>
       </c>
       <c r="G75" s="42"/>
       <c r="I75" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J75" s="42">
-        <v>0.17945654531231106</v>
+        <v>7.963712927880931E-2</v>
       </c>
       <c r="K75" s="42"/>
       <c r="M75" s="42"/>
-      <c r="N75" s="42" t="s">
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="O75" s="42">
-        <v>1.6859544601667387</v>
-      </c>
-      <c r="P75" s="42"/>
-    </row>
-    <row r="76" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A76" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="43">
-        <v>2.0128955989194299</v>
-      </c>
-      <c r="C76" s="43"/>
+      <c r="B76" s="42">
+        <v>1.6772241961243386</v>
+      </c>
+      <c r="C76" s="42"/>
       <c r="D76" s="42"/>
-      <c r="E76" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="43">
-        <v>2.0128955989194299</v>
-      </c>
-      <c r="G76" s="43"/>
-      <c r="I76" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J76" s="43">
-        <v>2.0128955989194299</v>
-      </c>
-      <c r="K76" s="43"/>
+      <c r="E76" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="42">
+        <v>1.6772241961243386</v>
+      </c>
+      <c r="G76" s="42"/>
+      <c r="I76" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76" s="42">
+        <v>1.6772241961243386</v>
+      </c>
+      <c r="K76" s="42"/>
       <c r="M76" s="42"/>
-      <c r="N76" s="42" t="s">
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+    </row>
+    <row r="77" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A77" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="O76" s="42">
-        <v>5.021566608338305E-3</v>
-      </c>
-      <c r="P76" s="42"/>
-    </row>
-    <row r="77" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A77" s="33"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="42">
+        <v>3.9081392507052289E-3</v>
+      </c>
+      <c r="C77" s="42"/>
       <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="42">
+        <v>4.6954731620265533E-2</v>
+      </c>
       <c r="G77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
+      <c r="I77" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J77" s="42">
+        <v>0.15927425855761862</v>
+      </c>
       <c r="K77" s="42"/>
       <c r="M77" s="42"/>
-      <c r="N77" s="43" t="s">
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+    </row>
+    <row r="78" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A78" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="O77" s="43">
-        <v>2.0243941639119702</v>
-      </c>
-      <c r="P77" s="43"/>
-    </row>
-    <row r="78" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A78" s="8"/>
-      <c r="B78" s="6"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
+      <c r="B78" s="43">
+        <v>2.0106347576242314</v>
+      </c>
+      <c r="C78" s="43"/>
+      <c r="E78" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="43">
+        <v>2.0106347576242314</v>
+      </c>
+      <c r="G78" s="43"/>
+      <c r="I78" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="43">
+        <v>2.0106347576242314</v>
+      </c>
       <c r="K78" s="43"/>
       <c r="M78" s="43"/>
       <c r="N78" s="43"/>
@@ -5767,10 +5721,12 @@
     <row r="92" spans="1:46">
       <c r="A92" s="33"/>
       <c r="B92" s="6"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:46">
       <c r="A93" s="33"/>
       <c r="B93" s="6"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:46">
       <c r="A94" s="8"/>
@@ -5784,39 +5740,39 @@
       <c r="A96" s="33"/>
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:12">
       <c r="A97" s="33"/>
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:12">
       <c r="A98" s="33"/>
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:12">
       <c r="A99" s="33"/>
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:12">
       <c r="A100" s="33"/>
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:12">
       <c r="A101" s="33"/>
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:12">
       <c r="A102" s="8"/>
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:12">
       <c r="A103" s="33"/>
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:12">
       <c r="A104" s="8"/>
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:12">
       <c r="A105" s="33">
         <v>8.4185999999999996</v>
       </c>
@@ -5824,11 +5780,11 @@
         <v>11.873100000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:12">
       <c r="A106" s="33"/>
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:12">
       <c r="A107" s="33">
         <v>9.4356000000000009</v>
       </c>
@@ -5836,41 +5792,252 @@
         <v>12.6122</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:12" ht="17.25" thickBot="1">
       <c r="A108" s="33"/>
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:12">
       <c r="A109" s="33"/>
       <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="44"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="33"/>
       <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="33">
         <v>8.9375</v>
       </c>
       <c r="B111" s="6">
         <v>11.994999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="33">
         <v>12.311</v>
       </c>
       <c r="B112" s="6">
         <v>16.230599999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="33">
         <v>14.4123</v>
       </c>
       <c r="B113" s="6">
         <v>18.7165</v>
       </c>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
+    </row>
+    <row r="129" spans="8:14">
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+    </row>
+    <row r="130" spans="8:14">
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+    </row>
+    <row r="131" spans="8:14">
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+    </row>
+    <row r="132" spans="8:14">
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+    </row>
+    <row r="133" spans="8:14" ht="17.25" thickBot="1">
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+    </row>
+    <row r="136" spans="8:14" ht="17.25" thickBot="1"/>
+    <row r="137" spans="8:14">
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="44"/>
+      <c r="L137" s="44"/>
+      <c r="M137" s="44"/>
+      <c r="N137" s="44"/>
+    </row>
+    <row r="138" spans="8:14">
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+    </row>
+    <row r="139" spans="8:14">
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+    </row>
+    <row r="140" spans="8:14">
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+    </row>
+    <row r="141" spans="8:14" ht="17.25" thickBot="1">
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data_Result/Test_Mul_GA_compare.xlsx
+++ b/Data_Result/Test_Mul_GA_compare.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>1_Sam</t>
   </si>
@@ -284,30 +284,6 @@
   </si>
   <si>
     <t>60_ARIMA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARIMA30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARIMA15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arima60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -951,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1530,97 +1506,6 @@
       <c r="AS10" s="23"/>
       <c r="AT10" s="16"/>
     </row>
-    <row r="11" spans="1:47">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15.13</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15.582100000000001</v>
-      </c>
-      <c r="D11" s="34">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>17.633199999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="33">
-        <v>15.868399999999999</v>
-      </c>
-      <c r="I11" s="6">
-        <v>18.741800000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>24.436800000000002</v>
-      </c>
-      <c r="K11" s="2">
-        <v>29.476199999999999</v>
-      </c>
-      <c r="L11" s="2">
-        <v>25.631499999999999</v>
-      </c>
-      <c r="M11" s="2">
-        <v>24.202400000000001</v>
-      </c>
-      <c r="N11" s="2">
-        <v>25.16</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="6">
-        <v>24.5471</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>27.067599999999999</v>
-      </c>
-      <c r="R11" s="5">
-        <v>34.2134</v>
-      </c>
-      <c r="S11" s="5">
-        <v>45.5229</v>
-      </c>
-      <c r="T11" s="35">
-        <v>40.2072</v>
-      </c>
-      <c r="U11" s="35">
-        <v>53.170299999999997</v>
-      </c>
-      <c r="V11" s="5">
-        <v>46.128900000000002</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="6">
-        <v>45.529400000000003</v>
-      </c>
-      <c r="Y11" s="32">
-        <v>36.418599999999998</v>
-      </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="1"/>
-    </row>
     <row r="12" spans="1:47">
       <c r="A12" t="s">
         <v>10</v>
@@ -2780,31 +2665,75 @@
       <c r="AT27" s="1"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="39"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9.8785000000000007</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10.472</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10.082599999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10.0396</v>
+      </c>
+      <c r="F28" s="3">
+        <v>9.8620999999999999</v>
+      </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="H28" s="38">
+        <v>9.8078000000000003</v>
+      </c>
+      <c r="I28" s="6">
+        <v>13.559200000000001</v>
+      </c>
+      <c r="J28" s="2">
+        <v>15.2005</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15.7233</v>
+      </c>
+      <c r="L28" s="2">
+        <v>15.401899999999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>15.0655</v>
+      </c>
+      <c r="N28" s="2">
+        <v>15.096399999999999</v>
+      </c>
       <c r="O28" s="9"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="P28" s="6">
+        <v>14.730600000000001</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>19.650400000000001</v>
+      </c>
+      <c r="R28" s="5">
+        <v>23.989799999999999</v>
+      </c>
+      <c r="S28" s="5">
+        <v>26.255700000000001</v>
+      </c>
+      <c r="T28" s="5">
+        <v>24.3643</v>
+      </c>
+      <c r="U28" s="5">
+        <v>23.488700000000001</v>
+      </c>
+      <c r="V28" s="5">
+        <v>23.5383</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="32"/>
+      <c r="X28" s="6">
+        <v>23.267199999999999</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>28.738299999999999</v>
+      </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -3009,50 +2938,72 @@
       <c r="AT30" s="1"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="39"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="6"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="1"/>
+      <c r="A31" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="6">
+        <v>11.3744</v>
+      </c>
+      <c r="C31">
+        <v>12.9122</v>
+      </c>
+      <c r="D31">
+        <v>13.0756</v>
+      </c>
+      <c r="E31">
+        <v>12.800599999999999</v>
+      </c>
+      <c r="F31">
+        <v>11.5441</v>
+      </c>
+      <c r="H31">
+        <v>11.8401</v>
+      </c>
+      <c r="I31" s="11">
+        <v>14.6716</v>
+      </c>
+      <c r="J31">
+        <v>21.448699999999999</v>
+      </c>
+      <c r="K31">
+        <v>25.1218</v>
+      </c>
+      <c r="L31">
+        <v>23.040199999999999</v>
+      </c>
+      <c r="M31">
+        <v>24.9557</v>
+      </c>
+      <c r="N31">
+        <v>23.1248</v>
+      </c>
+      <c r="P31">
+        <v>23.1248</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>22.8476</v>
+      </c>
+      <c r="R31">
+        <v>35.5244</v>
+      </c>
+      <c r="S31">
+        <v>43.655700000000003</v>
+      </c>
+      <c r="T31">
+        <v>42.177700000000002</v>
+      </c>
+      <c r="U31">
+        <v>39.821599999999997</v>
+      </c>
+      <c r="V31">
+        <v>41.337400000000002</v>
+      </c>
+      <c r="X31">
+        <v>40.748399999999997</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>33.833300000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:46">
       <c r="A32" t="s">
@@ -3064,7 +3015,7 @@
       <c r="C32" s="3">
         <v>20.1919</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="34">
         <v>123.1863</v>
       </c>
       <c r="E32" s="3">
@@ -4756,23 +4707,23 @@
       </c>
       <c r="B58" s="4">
         <f t="shared" ref="B58:G58" si="0">AVERAGE(B2:B57)</f>
-        <v>11.635727999999999</v>
+        <v>11.423696153846153</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
-        <v>12.189084000000001</v>
+        <v>12.020353846153844</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="0"/>
-        <v>16.076180000000004</v>
+        <v>15.633180769230773</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
-        <v>12.370519999999999</v>
+        <v>12.094999999999999</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>11.681004</v>
+        <v>11.431973076923075</v>
       </c>
       <c r="G58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -4780,31 +4731,31 @@
       </c>
       <c r="H58" s="10">
         <f>AVERAGE(H2:H57)</f>
-        <v>11.441356000000001</v>
+        <v>11.223592307692307</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ref="I58:O58" si="1">AVERAGE(I2:I57)</f>
-        <v>15.000579999999999</v>
+        <v>14.788596153846154</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>19.76538</v>
+        <v>19.474880769230769</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
-        <v>20.983420000000002</v>
+        <v>20.613630769230767</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="1"/>
-        <v>21.081323999999999</v>
+        <v>20.763219230769231</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="1"/>
-        <v>20.075820000000007</v>
+        <v>19.912088461538467</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="1"/>
-        <v>20.234363999999996</v>
+        <v>19.958473076923077</v>
       </c>
       <c r="O58" s="10" t="e">
         <f t="shared" si="1"/>
@@ -4812,31 +4763,31 @@
       </c>
       <c r="P58" s="4">
         <f t="shared" ref="P58:Y58" si="2">AVERAGE(P2:P57)</f>
-        <v>19.690444000000003</v>
+        <v>19.444976923076926</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="2"/>
-        <v>23.265748000000009</v>
+        <v>22.964388461538469</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="2"/>
-        <v>31.446224000000001</v>
+        <v>31.209861538461539</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>32.937524000000003</v>
+        <v>32.608715384615387</v>
       </c>
       <c r="T58" s="4">
         <f t="shared" si="2"/>
-        <v>32.159444000000001</v>
+        <v>31.935419230769234</v>
       </c>
       <c r="U58" s="4">
         <f t="shared" si="2"/>
-        <v>32.731636000000002</v>
+        <v>31.86272692307692</v>
       </c>
       <c r="V58" s="4">
         <f t="shared" si="2"/>
-        <v>32.745283999999998</v>
+        <v>32.206880769230764</v>
       </c>
       <c r="W58" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4844,47 +4795,121 @@
       </c>
       <c r="X58" s="4">
         <f t="shared" si="2"/>
-        <v>31.819247999999998</v>
+        <v>31.306438461538463</v>
       </c>
       <c r="Y58" s="4">
         <f t="shared" si="2"/>
-        <v>35.703076000000003</v>
+        <v>35.335765384615385</v>
       </c>
     </row>
     <row r="59" spans="1:46">
       <c r="A59" s="7"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" t="s">
-        <v>79</v>
-      </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="6"/>
-      <c r="P59" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>78</v>
-      </c>
-      <c r="V59" s="6"/>
-      <c r="X59" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>80</v>
+      <c r="B59">
+        <f>STDEV(B2:B55)</f>
+        <v>3.5221675307663443</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:Y59" si="3">STDEV(C2:C55)</f>
+        <v>3.4259051157007598</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>22.154222044170623</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>3.607323208142025</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>3.3902045530684664</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>3.4250324131515044</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>4.4831431867814233</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>5.5937806405342032</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>6.1831165483286332</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>6.3993324185586129</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>5.6146069032356491</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>5.6097171037090803</v>
+      </c>
+      <c r="O59" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>5.4494831133462736</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>6.6622238301231924</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="3"/>
+        <v>8.9552760063362271</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="3"/>
+        <v>9.7002346406132673</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>8.9854494480807894</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="3"/>
+        <v>9.3287176977570923</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="3"/>
+        <v>9.1029681351093199</v>
+      </c>
+      <c r="W59" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="3"/>
+        <v>8.8921027427297137</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>9.9134596679037141</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17.25" thickBot="1">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.25" thickBot="1">
@@ -4896,25 +4921,25 @@
     <row r="67" spans="1:16">
       <c r="A67" s="44"/>
       <c r="B67" s="44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D67" s="42"/>
       <c r="E67" s="44"/>
       <c r="F67" s="44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I67" s="44"/>
       <c r="J67" s="44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K67" s="44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M67" s="44"/>
       <c r="N67" s="42"/>
@@ -4923,7 +4948,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B68" s="42">
         <v>15.000579999999999</v>
@@ -4933,7 +4958,7 @@
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F68" s="42">
         <v>23.265748000000009</v>
@@ -4942,7 +4967,7 @@
         <v>19.690444000000003</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J68" s="42">
         <v>35.703076000000003</v>
@@ -4957,7 +4982,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B69" s="42">
         <v>21.476817070833437</v>
@@ -4967,7 +4992,7 @@
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F69" s="42">
         <v>46.383350235099748</v>
@@ -4976,7 +5001,7 @@
         <v>30.46585479839996</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J69" s="42">
         <v>100.37219652273309</v>
@@ -4991,7 +5016,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B70" s="42">
         <v>25</v>
@@ -5001,7 +5026,7 @@
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F70" s="42">
         <v>25</v>
@@ -5010,7 +5035,7 @@
         <v>25</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J70" s="42">
         <v>25</v>
@@ -5025,7 +5050,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B71" s="42">
         <v>17.223311432116702</v>
@@ -5033,14 +5058,14 @@
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F71" s="42">
         <v>38.42460251674985</v>
       </c>
       <c r="G71" s="42"/>
       <c r="I71" s="42" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J71" s="42">
         <v>92.24183953849986</v>
@@ -5053,7 +5078,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B72" s="42">
         <v>0</v>
@@ -5061,14 +5086,14 @@
       <c r="C72" s="42"/>
       <c r="D72" s="42"/>
       <c r="E72" s="42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F72" s="42">
         <v>0</v>
       </c>
       <c r="G72" s="42"/>
       <c r="I72" s="42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J72" s="42">
         <v>0</v>
@@ -5081,7 +5106,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B73" s="42">
         <v>48</v>
@@ -5089,14 +5114,14 @@
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F73" s="42">
         <v>48</v>
       </c>
       <c r="G73" s="42"/>
       <c r="I73" s="42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J73" s="42">
         <v>48</v>
@@ -5109,7 +5134,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B74" s="42">
         <v>3.0321592052064608</v>
@@ -5117,14 +5142,14 @@
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
       <c r="E74" s="42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F74" s="42">
         <v>2.0392162791624471</v>
       </c>
       <c r="G74" s="42"/>
       <c r="I74" s="42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J74" s="42">
         <v>1.4297200816305096</v>
@@ -5137,7 +5162,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B75" s="42">
         <v>1.9540696253526144E-3</v>
@@ -5145,14 +5170,14 @@
       <c r="C75" s="42"/>
       <c r="D75" s="42"/>
       <c r="E75" s="42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F75" s="42">
         <v>2.3477365810132766E-2</v>
       </c>
       <c r="G75" s="42"/>
       <c r="I75" s="42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J75" s="42">
         <v>7.963712927880931E-2</v>
@@ -5165,7 +5190,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B76" s="42">
         <v>1.6772241961243386</v>
@@ -5173,14 +5198,14 @@
       <c r="C76" s="42"/>
       <c r="D76" s="42"/>
       <c r="E76" s="42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F76" s="42">
         <v>1.6772241961243386</v>
       </c>
       <c r="G76" s="42"/>
       <c r="I76" s="42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J76" s="42">
         <v>1.6772241961243386</v>
@@ -5193,7 +5218,7 @@
     </row>
     <row r="77" spans="1:16" ht="17.25" thickBot="1">
       <c r="A77" s="42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B77" s="42">
         <v>3.9081392507052289E-3</v>
@@ -5201,14 +5226,14 @@
       <c r="C77" s="42"/>
       <c r="D77" s="43"/>
       <c r="E77" s="42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F77" s="42">
         <v>4.6954731620265533E-2</v>
       </c>
       <c r="G77" s="42"/>
       <c r="I77" s="42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J77" s="42">
         <v>0.15927425855761862</v>
@@ -5221,21 +5246,21 @@
     </row>
     <row r="78" spans="1:16" ht="17.25" thickBot="1">
       <c r="A78" s="43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B78" s="43">
         <v>2.0106347576242314</v>
       </c>
       <c r="C78" s="43"/>
       <c r="E78" s="43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F78" s="43">
         <v>2.0106347576242314</v>
       </c>
       <c r="G78" s="43"/>
       <c r="I78" s="43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J78" s="43">
         <v>2.0106347576242314</v>
@@ -5284,12 +5309,99 @@
       <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:46">
-      <c r="A84" s="38"/>
-      <c r="B84" s="6"/>
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3">
+        <v>15.13</v>
+      </c>
+      <c r="C84" s="3">
+        <v>15.582100000000001</v>
+      </c>
+      <c r="D84" s="34">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E84" s="3">
+        <v>17.633199999999999</v>
+      </c>
+      <c r="F84" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="33">
+        <v>15.868399999999999</v>
+      </c>
+      <c r="I84" s="6">
+        <v>18.741800000000001</v>
+      </c>
+      <c r="J84" s="2">
+        <v>24.436800000000002</v>
+      </c>
+      <c r="K84" s="2">
+        <v>29.476199999999999</v>
+      </c>
+      <c r="L84" s="2">
+        <v>25.631499999999999</v>
+      </c>
+      <c r="M84" s="2">
+        <v>24.202400000000001</v>
+      </c>
+      <c r="N84" s="2">
+        <v>25.16</v>
+      </c>
+      <c r="O84" s="9"/>
+      <c r="P84" s="6">
+        <v>24.5471</v>
+      </c>
+      <c r="Q84" s="31">
+        <v>27.067599999999999</v>
+      </c>
+      <c r="R84" s="5">
+        <v>34.2134</v>
+      </c>
+      <c r="S84" s="5">
+        <v>45.5229</v>
+      </c>
+      <c r="T84" s="35">
+        <v>40.2072</v>
+      </c>
+      <c r="U84" s="35">
+        <v>53.170299999999997</v>
+      </c>
+      <c r="V84" s="5">
+        <v>46.128900000000002</v>
+      </c>
+      <c r="W84" s="1"/>
+      <c r="X84" s="6">
+        <v>45.529400000000003</v>
+      </c>
+      <c r="Y84" s="32">
+        <v>36.418599999999998</v>
+      </c>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="6"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="5"/>
+      <c r="AQ84" s="5"/>
+      <c r="AR84" s="5"/>
+      <c r="AS84" s="5"/>
+      <c r="AT84" s="1"/>
     </row>
     <row r="85" spans="1:46">
       <c r="A85" s="38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B85" s="6">
         <v>11.3744</v>
